--- a/data/data_sheets_temp_4.xlsx
+++ b/data/data_sheets_temp_4.xlsx
@@ -469,7 +469,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/454603_cnode_maxi_midi_safety_data_sheet.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/acs500-emergency-acoustic-bop-control-system/', '/globalassets/maritime/km-products/product-documents/acs500-transducer-selection-guide/'], 'Manual': ['/globalassets/maritime/km-products/product-documents/acs500-instruction-manual-gisma-test-ports/', '/globalassets/maritime/km-products/product-documents/acs500-instruction-manual-macartney-test-ports/', '/globalassets/maritime/km-products/product-documents/acs500-instruction-manual/'], 'Reference guide': ['/globalassets/maritime/km-products/product-documents/acu30-quick-reference-guide-for-acs500-system/'], 'Safety Data Sheet': ['/globalassets/maritime/km-products/product-documents/454603_cnode_maxi_midi_safety_data_sheet.pdf'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/acs-control/']}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisbs600.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/411069d_ds_aisbs610_dec22.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisaq610.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisrx610.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheets': ['/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisbs600.pdf', '/contentassets/ce398b77c82a49b78da71cab3dbe06ab/411069d_ds_aisbs610_dec22.pdf', '/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisaq610.pdf', '/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisrx610.pdf']}</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,11 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -523,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asr_c50.pdf, https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asrx50.pdf</t>
+          <t>{'Data sheets': ['/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asr_c50.pdf', '/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asrx50.pdf']}</t>
         </is>
       </c>
     </row>
@@ -545,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/90db5b261a15439e8c200bfc2969308f/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/90db5b261a15439e8c200bfc2969308f/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -563,7 +567,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/c8ed4213f5cc4e05b1a9da40928e42ba/application-note-transducer-alignment_version-2.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/339312_technical_bulletin_setting_up_2_lbl_arrays_in_apos.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hipap-application-note-sparse-lbl.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/contentassets/48b763f56d4c431e9d1fe60be9d5f176/365427n-poscom-support-limitations.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/403549f-apos-survey-ins.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/160925af_apos_for_hpr_400_series_complete_instruction_manual.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388797.pdf, https://www.kongsberg.com/contentassets/a1a3d8203e4f4d18b7dbb6aa4f97968e/apos-6_10_1-software-release-note.pdf</t>
+          <t>{'Application note': ['/contentassets/c8ed4213f5cc4e05b1a9da40928e42ba/application-note-transducer-alignment_version-2.pdf', '/globalassets/maritime/km-products/product-documents/339312_technical_bulletin_setting_up_2_lbl_arrays_in_apos.pdf', '/globalassets/maritime/km-products/product-documents/hipap-application-note-sparse-lbl.pdf', '/globalassets/maritime/km-products/product-documents/tow-fish-tracking/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/apos-survey---surveyors-independent-operator-station-for-hipap/'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf', '/contentassets/48b763f56d4c431e9d1fe60be9d5f176/365427n-poscom-support-limitations.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/403549f-apos-survey-ins.pdf', '/globalassets/maritime/km-products/product-documents/apos-for-hipap-model-501_451_351_101-instruction-manual/', '/globalassets/maritime/km-products/product-documents/160925af_apos_for_hpr_400_series_complete_instruction_manual.pdf', '/globalassets/maritime/km-products/product-documents/binary-communication-protocol-hpr-400/'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388797.pdf', '/contentassets/a1a3d8203e4f4d18b7dbb6aa4f97968e/apos-6_10_1-software-release-note.pdf'], 'User procedures': ['/globalassets/maritime/km-products/product-documents/hipap-sparse-lbl---user-procedure/']}</t>
         </is>
       </c>
     </row>
@@ -579,7 +583,11 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -599,7 +607,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/520f6e01da10469ea53f0398a179973e/km_datsheeta4_aquaculture-monitoring-system_210512.pdf</t>
+          <t>{'Data sheet': ['/contentassets/520f6e01da10469ea53f0398a179973e/km_datsheeta4_aquaculture-monitoring-system_210512.pdf']}</t>
         </is>
       </c>
     </row>
@@ -621,7 +629,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300s.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300bf.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_mfd307.pdf</t>
+          <t>{'Data sheets': ['/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300.pdf', '/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300s.pdf', '/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300bf.pdf', '/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_mfd307.pdf']}</t>
         </is>
       </c>
     </row>
@@ -643,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/auv-management-course.pdf, https://www.kongsberg.com/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf</t>
+          <t>{'Course description': ['/globalassets/maritime/km-products/product-documents/auv-management-course.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/hugin-product-specification/', '/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf'], 'Paper': ['/globalassets/maritime/km-products/product-documents/hugin-auv-concept-and-operational-experiences-to-date/'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/the-complete-modular-and-portable-mcm-system/']}</t>
         </is>
       </c>
     </row>
@@ -665,7 +673,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/8cf870df24534451afb5f54d171ba2ba/datasheet_hugin_edge.pdf</t>
+          <t>{'Data sheet': ['/contentassets/8cf870df24534451afb5f54d171ba2ba/datasheet_hugin_edge.pdf']}</t>
         </is>
       </c>
     </row>
@@ -687,7 +695,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/3a18a176bcca41e98b7f08eedf64e4e8/473631a_hugin_endurance_datasheet.pdf</t>
+          <t>{'Data sheet': ['/contentassets/3a18a176bcca41e98b7f08eedf64e4e8/473631a_hugin_endurance_datasheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -709,7 +717,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/auv-management-course.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hugin-superior.pdf</t>
+          <t>{'Course description': ['/globalassets/maritime/km-products/product-documents/auv-management-course.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/hugin-superior.pdf']}</t>
         </is>
       </c>
     </row>
@@ -731,7 +739,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/88df0cc7b3574a0ab3d1d0d560fae99b/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/88df0cc7b3574a0ab3d1d0d560fae99b/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -749,7 +757,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/8474e0e7f58645d8914338b699497a3b/431016b_cnode_modem_embed_qrg.pdf, https://www.kongsberg.com/contentassets/8474e0e7f58645d8914338b699497a3b/453694b_cnode_modem_embed_inm.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-modem-embed/'], 'Manual': ['/contentassets/8474e0e7f58645d8914338b699497a3b/431016b_cnode_modem_embed_qrg.pdf', '/contentassets/8474e0e7f58645d8914338b699497a3b/453694b_cnode_modem_embed_inm.pdf']}</t>
         </is>
       </c>
     </row>
@@ -765,7 +773,11 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-modem-explorer/'], 'Manual': ['/globalassets/maritime/km-products/product-documents/cnode-modem-explorer-instruction-manual/']}</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -785,7 +797,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/35803c378c20453e86355c82ea7b84e7/494054a-cnode-mantis-data-sheet.pdf</t>
+          <t>{'Data sheet': ['/contentassets/35803c378c20453e86355c82ea7b84e7/494054a-cnode-mantis-data-sheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -807,7 +819,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/1de6d234d15c4a31a1b4387a05e5a2bb/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/documents/425498c_cnode_modem_minis_datasheet.pdf, https://www.kongsberg.com/contentassets/6d263d6b2f6e4d7e971c051fd1d251ce/425668c-cnode-modem-minis-mf-inm.pdf, https://www.kongsberg.com/contentassets/6d263d6b2f6e4d7e971c051fd1d251ce/110-0000612a-cnode-modem-minis-lf-inm.pdf, https://www.kongsberg.com/contentassets/5764b7798b00468e88c36f07d945df33/402292-cnode-minis-battery-safety.pdf, https://www.kongsberg.com/contentassets/34931338a5c1406fb74376b84c2a8506/445192c-software-release-note-cnode-modem-minis-mf.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/contentassets/1de6d234d15c4a31a1b4387a05e5a2bb/405264-subsea-construction.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/documents/425498c_cnode_modem_minis_datasheet.pdf'], 'Manual': ['/contentassets/6d263d6b2f6e4d7e971c051fd1d251ce/425668c-cnode-modem-minis-mf-inm.pdf', '/contentassets/6d263d6b2f6e4d7e971c051fd1d251ce/110-0000612a-cnode-modem-minis-lf-inm.pdf'], 'Safety data sheet': ['/contentassets/5764b7798b00468e88c36f07d945df33/402292-cnode-minis-battery-safety.pdf'], 'Software release note': ['/contentassets/34931338a5c1406fb74376b84c2a8506/445192c-software-release-note-cnode-modem-minis-mf.pdf']}</t>
         </is>
       </c>
     </row>
@@ -825,7 +837,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/ffebb99478c0421291541ed4fea7bff9/429468b_cnode_embed_inm.pdf, https://www.kongsberg.com/contentassets/ffebb99478c0421291541ed4fea7bff9/431015a_cnode_embed_qrg.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-embed---transponder-electronic-module/'], 'Manual': ['/contentassets/ffebb99478c0421291541ed4fea7bff9/429468b_cnode_embed_inm.pdf', '/contentassets/ffebb99478c0421291541ed4fea7bff9/431015a_cnode_embed_qrg.pdf']}</t>
         </is>
       </c>
     </row>
@@ -847,7 +859,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/733bb34cd3fc4de29c45e9e6603fb216/390755g_cnode_maxi-31_ex_d.pdf, https://www.kongsberg.com/contentassets/cecc0bc23866454f8f8586ed6576ede4/454603_cnode_maxi_midi_safety_data_sheet.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-maxi-31-exd/'], 'Manual': ['/contentassets/733bb34cd3fc4de29c45e9e6603fb216/390755g_cnode_maxi-31_ex_d.pdf'], 'Safety data sheet': ['/contentassets/cecc0bc23866454f8f8586ed6576ede4/454603_cnode_maxi_midi_safety_data_sheet.pdf'], 'Software release note': ['/maritime/support/document-and-downloads/software-downloads/']}</t>
         </is>
       </c>
     </row>
@@ -865,7 +877,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/c53798f980e143728356ea237560b3bb/461378a-cnode-explorer-inm.pdf</t>
+          <t>{'Manual': ['/contentassets/c53798f980e143728356ea237560b3bb/461378a-cnode-explorer-inm.pdf']}</t>
         </is>
       </c>
     </row>
@@ -881,7 +893,11 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-iqam---intelligent-data-analysis-and-monitoring/']}</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -897,7 +913,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/351d6054ff5b45d0b7e97d95f8da1c81/454364a_cnode_maxi_midi_qrg.pdf, https://www.kongsberg.com/contentassets/ad887598630d450cbf61739092ef432e/322217h-cnode-maxi-midi-mf-inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/390909-cnode-with-compass-inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/373044_cnode_software_update_battery_lifetime_estimation_info_letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/372212_cnode_maxi_battery_lifetime_estimation_tech_note.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/369828_improvement_cnode_release_mech_info_letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/370192_procedure_cnode_release_mech_tech_bulletin.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf, https://www.kongsberg.com/contentassets/a5005ba51b5d45ae844da8ddd63b91ad/454603_cnode_maxi_midi_safety_data_sheet.pdf, https://www.kongsberg.com/globalassets/maritime/documents/certificates/product/battery-transportation-information/319554---lithium-batt.-pack-cnode-maxi-battery-test-summary.pdf, https://www.kongsberg.com/contentassets/a5005ba51b5d45ae844da8ddd63b91ad/467031a_cnode_maxi_alkaline_safety_datasheet.pdf, https://www.kongsberg.com/contentassets/893b40e87ae7459f916d3b5ead045a71/386847_d_cnode_sw_rel_note.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponders---medium-frequency-4000m/', '/globalassets/maritime/km-products/product-documents/cnode-gyro-endcap-module/', '/globalassets/maritime/km-products/product-documents/cnode-sound-velocity-pressure-and-inclinometer-sensor-module/'], 'Brochure': ['/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Reference guide': ['/contentassets/351d6054ff5b45d0b7e97d95f8da1c81/454364a_cnode_maxi_midi_qrg.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponder---low-frequency-instruction-manual/', '/contentassets/ad887598630d450cbf61739092ef432e/322217h-cnode-maxi-midi-mf-inm.pdf', '/globalassets/maritime/km-products/product-documents/390909-cnode-with-compass-inm.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/373044_cnode_software_update_battery_lifetime_estimation_info_letter.pdf', '/globalassets/maritime/km-products/product-documents/372212_cnode_maxi_battery_lifetime_estimation_tech_note.pdf', '/globalassets/maritime/km-products/product-documents/369828_improvement_cnode_release_mech_info_letter.pdf', '/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf', '/globalassets/maritime/km-products/product-documents/370192_procedure_cnode_release_mech_tech_bulletin.pdf', '/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf'], 'Safety data sheet': ['/contentassets/a5005ba51b5d45ae844da8ddd63b91ad/454603_cnode_maxi_midi_safety_data_sheet.pdf', '/globalassets/maritime/documents/certificates/product/battery-transportation-information/319554---lithium-batt.-pack-cnode-maxi-battery-test-summary.pdf', '/contentassets/a5005ba51b5d45ae844da8ddd63b91ad/467031a_cnode_maxi_alkaline_safety_datasheet.pdf'], 'Software release note': ['/contentassets/893b40e87ae7459f916d3b5ead045a71/386847_d_cnode_sw_rel_note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -919,7 +935,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/8cc479c87025451288686c14a0dad04c/435239d-cnode-micro-battery-safety.pdf, https://www.kongsberg.com/contentassets/ae0d71667ba74ad0970310859296298d/426351c-cnode-micro-inm.pdf, https://www.kongsberg.com/contentassets/aa1b1142480045a2a2f99d21588286aa/450393b_cnode_micro_qrg.pdf, https://www.kongsberg.com/contentassets/0e9b92eaa6c94c17b87888b5e2149442/445340b-software-release-note-cnode-micro.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/contentassets/8cc479c87025451288686c14a0dad04c/435239d-cnode-micro-battery-safety.pdf', '/globalassets/maritime/km-products/product-documents/cnode-micro-transponder/'], 'Manual': ['/contentassets/ae0d71667ba74ad0970310859296298d/426351c-cnode-micro-inm.pdf'], 'Reference guide': ['/contentassets/aa1b1142480045a2a2f99d21588286aa/450393b_cnode_micro_qrg.pdf'], 'Software release note': ['/contentassets/0e9b92eaa6c94c17b87888b5e2149442/445340b-software-release-note-cnode-micro.pdf']}</t>
         </is>
       </c>
     </row>
@@ -941,7 +957,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/454364_cnode_maxi_midi_qrg.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/322217g_cnode_maxi_midi_mf_inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/373044_cnode_software_update_battery_lifetime_estimation_info_letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/372212_cnode_maxi_battery_lifetime_estimation_tech_note.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/369828_improvement_cnode_release_mech_info_letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/370192_procedure_cnode_release_mech_tech_bulletin.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf, https://www.kongsberg.com/contentassets/b93eaf1873f34cb8b553ff52f3ab5ad2/454603_cnode_maxi_midi_safety_data_sheet.pdf, https://www.kongsberg.com/contentassets/3d504ce6dcb748d9aca4c00070c8739c/386847_d_cnode_sw_rel_note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/cnode-gyro-endcap-module/', '/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponders---medium-frequency-4000m/', '/globalassets/maritime/km-products/product-documents/cnode-sound-velocity-pressure-and-inclinometer-sensor-module/'], 'Reference guide': ['/globalassets/maritime/km-products/product-documents/454364_cnode_maxi_midi_qrg.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponder---low-frequency-instruction-manual/', '/globalassets/maritime/km-products/product-documents/322217g_cnode_maxi_midi_mf_inm.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/373044_cnode_software_update_battery_lifetime_estimation_info_letter.pdf', '/globalassets/maritime/km-products/product-documents/372212_cnode_maxi_battery_lifetime_estimation_tech_note.pdf', '/globalassets/maritime/km-products/product-documents/369828_improvement_cnode_release_mech_info_letter.pdf', '/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf', '/globalassets/maritime/km-products/product-documents/370192_procedure_cnode_release_mech_tech_bulletin.pdf', '/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf'], 'Safety data sheet': ['/contentassets/b93eaf1873f34cb8b553ff52f3ab5ad2/454603_cnode_maxi_midi_safety_data_sheet.pdf'], 'Software release note': ['/contentassets/3d504ce6dcb748d9aca4c00070c8739c/386847_d_cnode_sw_rel_note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -963,7 +979,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/d46aa1b46c7c495eacd1c70f4f768087/378499-cnode-mini-prod-spec.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/411144-cnode-mini-lf-inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/331869_cnode_mini_instruction_manual.pdf, https://www.kongsberg.com/contentassets/c057b20a5e9d4956ad2007a78fdf643e/386847_d_cnode_sw_rel_note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/contentassets/d46aa1b46c7c495eacd1c70f4f768087/378499-cnode-mini-prod-spec.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/365162_cnode_maxi_midi_mini_tp_chassis_utb.pdf', '/globalassets/maritime/km-products/product-documents/356407_utb_jumper_settings_for_cnode_qrg.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/411144-cnode-mini-lf-inm.pdf', '/globalassets/maritime/km-products/product-documents/331869_cnode_mini_instruction_manual.pdf'], 'Software release note': ['/contentassets/c057b20a5e9d4956ad2007a78fdf643e/386847_d_cnode_sw_rel_note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -985,7 +1001,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/407452f-cnode-minis-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/469265a-cnode-minis-p-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/467422a-cnode-minis-s-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/490531_a-cnode-minis-1.11-50v-datasheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/410489-minis-information-letter.pdf, https://www.kongsberg.com/contentassets/7015b2731e124fa096b0526c538a55e2/436538b_cnode_minis_1.11-50v_ti_inm.pdf, https://www.kongsberg.com/contentassets/7015b2731e124fa096b0526c538a55e2/458122b-cnode-minis-lf-inm.pdf, https://www.kongsberg.com/contentassets/7015b2731e124fa096b0526c538a55e2/397152e_cnode_minis_inm.pdf, https://www.kongsberg.com/contentassets/412b753f6015412bac1c7a544e2770ff/446008d_cnode_minis_qrg.pdf, https://www.kongsberg.com/contentassets/42642ab4a7a54634810fab7963838c44/402292g-cnode-minis-battery-safety.pdf, https://www.kongsberg.com/contentassets/bb8bfe57cc4c42b2a4bfdc826b6e9981/448100c-software-release-note-cnode-minis-mf.pdf, https://www.kongsberg.com/contentassets/579601a0858d4901be08d06711a36a44/469573b-software-release-note-cnode-minis-lf.pdf</t>
+          <t>{'Data sheets': ['/contentassets/3430e6ff5b7348c884fff37922f5aa63/407452f-cnode-minis-datasheet.pdf', '/contentassets/3430e6ff5b7348c884fff37922f5aa63/469265a-cnode-minis-p-datasheet.pdf', '/contentassets/3430e6ff5b7348c884fff37922f5aa63/467422a-cnode-minis-s-datasheet.pdf', '/contentassets/3430e6ff5b7348c884fff37922f5aa63/490531_a-cnode-minis-1.11-50v-datasheet.pdf'], 'Brochures': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/410489-minis-information-letter.pdf'], 'Manuals': ['/contentassets/7015b2731e124fa096b0526c538a55e2/436538b_cnode_minis_1.11-50v_ti_inm.pdf', '/contentassets/7015b2731e124fa096b0526c538a55e2/458122b-cnode-minis-lf-inm.pdf', '/contentassets/7015b2731e124fa096b0526c538a55e2/397152e_cnode_minis_inm.pdf'], 'Reference guide': ['/contentassets/412b753f6015412bac1c7a544e2770ff/446008d_cnode_minis_qrg.pdf'], 'Safety data sheet': ['/contentassets/42642ab4a7a54634810fab7963838c44/402292g-cnode-minis-battery-safety.pdf'], 'Software release notes': ['/contentassets/bb8bfe57cc4c42b2a4bfdc826b6e9981/448100c-software-release-note-cnode-minis-mf.pdf', '/contentassets/579601a0858d4901be08d06711a36a44/469573b-software-release-note-cnode-minis-lf.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1023,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/1dfb2762fb3f43749e0333e48174a49f/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/1dfb2762fb3f43749e0333e48174a49f/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1045,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/57a857b841ea412b935571193488b6c7/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/02b1e7fdc9724b4d83eab94c01953760/470493a-cpap-mk-ii-datasheet.pdf, https://www.kongsberg.com/contentassets/35f7acaa25ff472eb29fe68a986ef226/451992a_cpap_mkii_qrg.pdf, https://www.kongsberg.com/contentassets/35f7acaa25ff472eb29fe68a986ef226/447979a_cpap_inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/450886_cpap_mkii_sw_rel_note.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/cpap/481859a-cpap-mk-ii-lf-software-release-note.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/386861_cpap_sw_release_note.pdf</t>
+          <t>{'Brochure': ['/contentassets/57a857b841ea412b935571193488b6c7/405264-subsea-construction.pdf'], 'Data sheet': ['/contentassets/02b1e7fdc9724b4d83eab94c01953760/470493a-cpap-mk-ii-datasheet.pdf'], 'Manual': ['/contentassets/35f7acaa25ff472eb29fe68a986ef226/451992a_cpap_mkii_qrg.pdf', '/contentassets/35f7acaa25ff472eb29fe68a986ef226/447979a_cpap_inm.pdf', '/globalassets/maritime/km-products/product-documents/cpap-subsea-transceiver-instruction-manual/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/450886_cpap_mkii_sw_rel_note.pdf', '/globalassets/maritime/snr-files/cpap/481859a-cpap-mk-ii-lf-software-release-note.pdf', '/globalassets/maritime/km-products/product-documents/386861_cpap_sw_release_note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/374876_cpap_30_cpap_10_portable_inm.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/374876_cpap_30_cpap_10_portable_inm.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1089,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/688f970054854477a22ca6e844eaed11/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/688f970054854477a22ca6e844eaed11/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1111,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/productsheet_dgnss_cm.pdf, https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/datasheet_drs-ims_500.pdf</t>
+          <t>{'Data- and product sheets': ['/contentassets/bb1c51497aac427ead65bcd68a658b3e/productsheet_dgnss_cm.pdf', '/contentassets/bb1c51497aac427ead65bcd68a658b3e/datasheet_drs-ims_500.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1127,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{'Application note': ['/globalassets/maritime/km-products/product-documents/low-cost-search-amp-recovery-scanning-sonar-system/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Related publications': ['https://www.mesotech.online/domed_sonar/documents.htm'], 'Software Download': ['~/link/0bd2bfacc7204005b8e2f1552bf3adae.aspx']}</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1131,7 +1151,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/das-system-dual-axis-scanning-sonar.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/das-system-dual-axis-scanning-sonar.pdf'], 'Related Publications': ['https://www.mesotech.online/dual_axis_sonar/documents.htm']}</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1173,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/323029e-ea440-datasheet.pdf, https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/418374d-ea440-splashproof-datasheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_en.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_de.pdf, https://www.kongsberg.com/contentassets/1d9f652b0f344359b51dbd8ff3eba350/459252b-ea440-hydrophone-application-note.pdf, https://www.kongsberg.com/contentassets/66f63c420ee5455aa6632654c4a9a37f/463776b-ea440-sub-bottom-application-note.pdf, https://www.kongsberg.com/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463775a-ea440-sidescan-application-note.pdf, https://www.kongsberg.com/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463774a-ea440-all-in-one-application-note.pdf, https://www.kongsberg.com/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463777a-ea440-vertical-depth-application-note.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea440/ref/ea440_ref_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea440/ins/ea440_ins_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea440/ins/ea440_qins_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea440/ins/ea440sp_qins_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea440/swrn/ea440_swrn_current_en_a4.pdf</t>
+          <t>{'Software': ['https://www.kongsberg.online/ea440/sw/ea440_setup.zip', 'https://www.kongsberg.online/ea440/sw/ea440_19_1_4_setup.zip', 'https://www.kongsberg.online/ea440/swrn/ea440_swrn_current_en_a4.pdf'], 'Data sheets': ['/contentassets/fa9cd40ee299462dbda53e5e12f73de2/323029e-ea440-datasheet.pdf', '/contentassets/fa9cd40ee299462dbda53e5e12f73de2/418374d-ea440-splashproof-datasheet.pdf', '/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf', '/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_en.pdf', '/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_de.pdf'], 'Application notes': ['/contentassets/1d9f652b0f344359b51dbd8ff3eba350/459252b-ea440-hydrophone-application-note.pdf', '/contentassets/66f63c420ee5455aa6632654c4a9a37f/463776b-ea440-sub-bottom-application-note.pdf', '/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463775a-ea440-sidescan-application-note.pdf', '/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463774a-ea440-all-in-one-application-note.pdf', '/contentassets/1d9f652b0f344359b51dbd8ff3eba350/463777a-ea440-vertical-depth-application-note.pdf'], 'User manuals': ['https://www.kongsberg.online/ea440/ref/ea440_ref_en_a4.pdf', 'https://www.kongsberg.online/ea440/ref_en/default.htm', 'https://www.kongsberg.online/ea440/ins/ea440_ins_en_a4.pdf', 'https://www.kongsberg.online/ea440/ins/ea440_qins_en_a4.pdf', 'https://www.kongsberg.online/ea440/ins/ea440sp_qins_en_a4.pdf'], 'Product description': ['/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-10---500khz/']}</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1195,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/3fa11659a3d3438586f6349d5b122f0c/407202c-ea640-datasheet.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea640/ref/ea640_ref_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea640/ins/ea640_ins_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea640/ins/ea640_qins_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsberg.online/ea640/swrn/ea640_swrn_current_en_a4.pdf</t>
+          <t>{'Software': ['https://www.kongsberg.online/ea640/sw/ea640_setup.zip', 'https://www.kongsberg.online/ea640/swrn/ea640_swrn_current_en_a4.pdf'], 'Data sheet': ['/contentassets/3fa11659a3d3438586f6349d5b122f0c/407202c-ea640-datasheet.pdf'], 'User manuals': ['https://www.kongsberg.online/ea640/ref/ea640_ref_en_a4.pdf', 'https://www.kongsberg.online/ea640/ref_en/default.htm', 'https://www.kongsberg.online/ea640/ins/ea640_ins_en_a4.pdf', 'https://www.kongsberg.online/ea640/ins/ea640_qins_en_a4.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1213,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/ea-mcu---flachenecholot/', '/globalassets/maritime/km-products/product-documents/single-beam-echo-sounder-sweep-system_ea-mcu/', '/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/'], 'Datenblatt': ['/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf'], 'Reference guide': ['/globalassets/maritime/km-products/product-documents/ea-rds-single-beam-echo-sounder/']}</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1229,11 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1229,7 +1253,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/ek80p_ds_en_a4.pdf, https://www.simrad.online/ek80/sales/ek80p_qrg_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1271,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/ek80p_flyer.pdf, https://www.simrad.online/td_038/es38_18_200_18c/sales/es38_18_200_18c_ds_en_a4.pdf, https://www.simrad.online/ek80/sales/Echoview_for_Simrad_EK80_Portable_Entry.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1287,11 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1283,7 +1311,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/6043385dd7424463ba45418e9dcb2e48/discovering-the-redefined-em-series-2022.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/em_technical_note_web_backscatteringseabedimagereflectivity.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/em-sector-coverage-beam-spacing-modes.pdf, https://www.kongsberg.com/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/443140_em124_installation_manual_en.pdf, https://www.kongsberg.com/contentassets/043ed187533d47bf987f73b579332951/458499aa_em124_maintenance_manual.pdf, https://www.kongsberg.com/contentassets/043ed187533d47bf987f73b579332951/160692ax_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/043ed187533d47bf987f73b579332951/495770ab_hws_instruction_manual.pdf, https://www.kongsberg.com/contentassets/df96b6771f554920b25f4f1f2055cfaa/454146_d-sound-levels-from-kongsberg-multibeam.pdf, https://www.kongsberg.com/contentassets/df96b6771f554920b25f4f1f2055cfaa/420527ad_transducer_painting_instruction.pdf</t>
+          <t>{'Application notes': ['/contentassets/6043385dd7424463ba45418e9dcb2e48/discovering-the-redefined-em-series-2022.pdf'], 'Articles &amp; Papers': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/', 'https://mac.unols.org/reports/', 'https://www.oceannews.com/news/science-technology/kongsberg-em-124-sonar-used-in-five-deeps-expedition', 'https://www.mdpi.com/2072-4292/14/9/2063', 'https://www.researchgate.net/publication/351361736_High-resolution_multibeam_sonar_bathymetry_of_the_deepest_place_in_each_ocean', 'https://www.hydro-international.com/content/article/exploring-the-deepest-points-on-earth?output=pdf', '/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf', '/contentassets/10a4892d878947179686be359245f4c0/em_technical_note_web_backscatteringseabedimagereflectivity.pdf', '/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf', '/contentassets/10a4892d878947179686be359245f4c0/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf', '/contentassets/10a4892d878947179686be359245f4c0/em-sector-coverage-beam-spacing-modes.pdf', '/contentassets/10a4892d878947179686be359245f4c0/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf'], 'Data sheets': ['/globalassets/maritime/km-products/product-documents/em-124-multibeam-echo-sounder/', '/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf', '/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf', '/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf'], 'Manuals': ['/globalassets/maritime/km-products/product-documents/443140_em124_installation_manual_en.pdf', '/contentassets/043ed187533d47bf987f73b579332951/458499aa_em124_maintenance_manual.pdf', '/contentassets/043ed187533d47bf987f73b579332951/160692ax_em_datagram_formats.pdf', '/contentassets/043ed187533d47bf987f73b579332951/410224ai_01_em_dgm_format.zip', '/contentassets/043ed187533d47bf987f73b579332951/495770ab_hws_instruction_manual.pdf'], 'Software': ['/maritime/support/document-and-downloads/software-downloads/'], 'Technical notes': ['/contentassets/df96b6771f554920b25f4f1f2055cfaa/454146_d-sound-levels-from-kongsberg-multibeam.pdf', '/contentassets/df96b6771f554920b25f4f1f2055cfaa/420527ad_transducer_painting_instruction.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1333,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/e8fa4f09f25f4b1e86eda52cc1355dc7/em-2040---mkii-data-sheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/application-note_em2040-high-frequency-mode.pdf, https://www.kongsberg.com/contentassets/b269295cf16d45d6a74b7e7fee206baa/466088aa_em_multifreqency_app_note.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/em_technical_note_web_backscatteringseabedimagereflectivity.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/em-sector-coverage-beam-spacing-modes.pdf, https://www.kongsberg.com/contentassets/1552210c0b3c47aab1d2ee83508c47e3/multibeam-intensity-v2022.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/us_hydro_2007_lr.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/kognifai_at_subsea-2018.pdf, https://www.kongsberg.com/contentassets/bec9fece17be43b7b1489b8cb9ba1fa6/472405ab_em2040mk2_installation_manual_en.pdf, https://www.kongsberg.com/contentassets/896351f6537a46ffa0017c232a5b26aa/495770aa_hws_instruction_manual.pdf, https://www.kongsberg.com/contentassets/bec9fece17be43b7b1489b8cb9ba1fa6/160692_em_datagram_formats.pdf</t>
+          <t>{'Data sheet': ['/contentassets/e8fa4f09f25f4b1e86eda52cc1355dc7/em-2040---mkii-data-sheet.pdf'], 'Application note': ['/globalassets/maritime/km-products/product-documents/discovering-the-redefined-em-multibeam-series/', '/globalassets/maritime/km-products/product-documents/application-note_em2040-high-frequency-mode.pdf', '/contentassets/b269295cf16d45d6a74b7e7fee206baa/466088aa_em_multifreqency_app_note.pdf'], 'Technical note': ['/globalassets/maritime/km-products/product-documents/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf', '/globalassets/maritime/km-products/product-documents/em_technical_note_web_backscatteringseabedimagereflectivity.pdf', '/globalassets/maritime/km-products/product-documents/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf', '/globalassets/maritime/km-products/product-documents/em-sector-coverage-beam-spacing-modes.pdf', '/contentassets/1552210c0b3c47aab1d2ee83508c47e3/multibeam-intensity-v2022.pdf', '/globalassets/maritime/km-products/product-documents/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf'], 'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/'], 'Paper': ['/globalassets/maritime/km-products/product-documents/us_hydro_2007_lr.pdf'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/kognifai_at_subsea-2018.pdf'], 'Manuals': ['/contentassets/bec9fece17be43b7b1489b8cb9ba1fa6/472405ab_em2040mk2_installation_manual_en.pdf', '/contentassets/896351f6537a46ffa0017c232a5b26aa/495770aa_hws_instruction_manual.pdf', '/contentassets/bec9fece17be43b7b1489b8cb9ba1fa6/160692_em_datagram_formats.pdf', '/contentassets/bec9fece17be43b7b1489b8cb9ba1fa6/410224ai_01_em_dgm_format.zip']}</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1351,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/e7694c05ba004432a68c918dff57c1fb/multibeam-intensity-v2022.pdf</t>
+          <t>{'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/em-2040-phs-portable-hydrographic-system/'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/'], 'Technical note': ['/contentassets/e7694c05ba004432a68c918dff57c1fb/multibeam-intensity-v2022.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1369,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/94ea2adb75394001a54d852d0920b420/443809ad_em2040c_mk2_data_sheet_slim_pu.pdf, https://www.kongsberg.com/contentassets/2e18d0568b19445e8f5a668cf106e18c/160692_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/cd134ba6371f4ec6aebdad030a2a03e8/495770aa_hws_instruction_manual.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/us_hydro_2007_lr.pdf, https://www.kongsberg.com/contentassets/560c7faa851c42e4b7ad609ca496ab4a/multibeam-intensity-v2022.pdf</t>
+          <t>{'Application note': ['/globalassets/maritime/km-products/product-documents/complete-portable-integrated-solution-for-laser-scanner-lidar-3d-and-multibeam-bathymetric-survey-system-topo-bathy/', '/globalassets/maritime/km-products/product-documents/discovering-the-redefined-em-multibeam-series/', '/globalassets/maritime/km-products/product-documents/em-2040-and-topas-ps-120-demonstrations-at-oceanology-international-2014/', '/globalassets/maritime/km-products/product-documents/the-em-2040-compact-trusted-acoustics-redefining-high-resolution-shallow-water-surveys/'], 'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/contentassets/94ea2adb75394001a54d852d0920b420/443809ad_em2040c_mk2_data_sheet_slim_pu.pdf'], 'Datenblatt': ['/globalassets/maritime/km-products/product-documents/em-2040-c-kompaktes-facherecholot-fur-flachwasser/'], 'Manuals': ['/contentassets/2e18d0568b19445e8f5a668cf106e18c/160692_em_datagram_formats.pdf', '/contentassets/2e18d0568b19445e8f5a668cf106e18c/410224ai_01_em_dgm_format.zip', '/contentassets/cd134ba6371f4ec6aebdad030a2a03e8/495770aa_hws_instruction_manual.pdf'], 'Paper': ['/globalassets/maritime/km-products/product-documents/us_hydro_2007_lr.pdf'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/'], 'Technical note': ['/globalassets/maritime/km-products/product-documents/advanced-filters-and-gains-for-em-2040-em-710-em-302-and-em-122/', '/globalassets/maritime/km-products/product-documents/backscattering-and-seabed-image-reflectivity/', '/globalassets/maritime/km-products/product-documents/detector-modes-in-sis-for-em-2040-em-2040c-and-em-3002/', '/globalassets/maritime/km-products/product-documents/filters-and-gains-for-em-2040-em-710-em-302-and-em-122/', '/globalassets/maritime/km-products/product-documents/multibeam-survey-planning---the-key-to-success/', '/globalassets/maritime/km-products/product-documents/sector-coverage-and-beam-spacing-modes-for-multibeam-echosounders/', '/contentassets/560c7faa851c42e4b7ad609ca496ab4a/multibeam-intensity-v2022.pdf', '/globalassets/maritime/km-products/product-documents/the-advantages-of-yaw-stabilization-in-multibeam-surveying/']}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1391,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/2b09d642b1604c78941086c6ce60a9b0/437136aj_em2040p_mk2_data_sheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/application-note_em2040-high-frequency-mode.pdf, https://www.kongsberg.com/contentassets/06751d50860f4275ae3ce351ca63deaf/466088aa_em_multifreqency_app_note.pdf, https://www.kongsberg.com/contentassets/f54e018fb4e74dc1a433c75befb2d73c/multibeam-intensity-v2022.pdf, https://www.kongsberg.com/contentassets/24be01e20bf94e02a1f29d5928755a87/160692_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/24be01e20bf94e02a1f29d5928755a87/417418ac_em2040p_installation_manual_en.pdf, https://www.kongsberg.com/contentassets/e6b2212ea9fc47788379927056cf7c0b/495770aa_hws_instruction_manual.pdf</t>
+          <t>{'Data sheet': ['/contentassets/2b09d642b1604c78941086c6ce60a9b0/437136aj_em2040p_mk2_data_sheet.pdf'], 'Application note': ['/globalassets/maritime/km-products/product-documents/discovering-the-redefined-em-multibeam-series/', '/globalassets/maritime/km-products/product-documents/application-note_em2040-high-frequency-mode.pdf', '/contentassets/06751d50860f4275ae3ce351ca63deaf/466088aa_em_multifreqency_app_note.pdf'], 'Technical note': ['/globalassets/maritime/km-products/product-documents/advanced-filters-and-gains-for-em-2040-em-710-em-302-and-em-122/', '/globalassets/maritime/km-products/product-documents/backscattering-and-seabed-image-reflectivity/', '/globalassets/maritime/km-products/product-documents/filters-and-gains-for-em-2040-em-710-em-302-and-em-122/', '/globalassets/maritime/km-products/product-documents/multibeam-survey-planning---the-key-to-success/', '/globalassets/maritime/km-products/product-documents/sector-coverage-and-beam-spacing-modes-for-multibeam-echosounders/', '/contentassets/f54e018fb4e74dc1a433c75befb2d73c/multibeam-intensity-v2022.pdf', '/globalassets/maritime/km-products/product-documents/the-advantages-of-yaw-stabilization-in-multibeam-surveying/'], 'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Manuals': ['/contentassets/24be01e20bf94e02a1f29d5928755a87/160692_em_datagram_formats.pdf', '/contentassets/24be01e20bf94e02a1f29d5928755a87/410224ai_01_em_dgm_format.zip', '/contentassets/24be01e20bf94e02a1f29d5928755a87/417418ac_em2040p_installation_manual_en.pdf', '/contentassets/e6b2212ea9fc47788379927056cf7c0b/495770aa_hws_instruction_manual.pdf'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/']}</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1413,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/71ac3f7f94c84db383e3dc1819ec5677/discovering-the-redefined-em-series-2022.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/integrated-solution-for-seafloor-mapping-processing-and-distribution.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em304-installation--results-onboard-rv-thalassa_2018.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/bubble-vent-localization-for-marine-hydrocarbon-seep-surveys_2022.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/multibeamsonarbackscatterdataprocessing_2018.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em_technical_note_web_backscatteringseabedimagereflectivity.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em-sector-coverage-beam-spacing-modes.pdf, https://www.kongsberg.com/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf, https://www.kongsberg.com/contentassets/37b2b502e3d549d6ab66dcd5d551e750/463787aa_em304_mkii_data_sheet.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/01.sis-remote-2p-26.05.21.pdf, https://www.kongsberg.com/contentassets/37b2b502e3d549d6ab66dcd5d551e750/467936aa_em304mk2_installation_manual_en.pdf, https://www.kongsberg.com/contentassets/7653073f4215463b80936a426a1a0d11/470434a_em304mkii_maintenance_manual.pdf, https://www.kongsberg.com/contentassets/7653073f4215463b80936a426a1a0d11/160692ax_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/7653073f4215463b80936a426a1a0d11/495770ab_hws_instruction_manual.pdf, https://www.kongsberg.com/contentassets/5e174bf20700424bb9840e4297571247/454146_d-sound-levels-from-kongsberg-multibeam.pdf, https://www.kongsberg.com/contentassets/5e174bf20700424bb9840e4297571247/420527ad_transducer_painting_instruction.pdf</t>
+          <t>{'Application notes': ['/contentassets/71ac3f7f94c84db383e3dc1819ec5677/discovering-the-redefined-em-series-2022.pdf'], 'Articles &amp; Papers': ['/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/integrated-solution-for-seafloor-mapping-processing-and-distribution.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em304-installation--results-onboard-rv-thalassa_2018.pdf', 'https://mac.unols.org/reports/', 'https://www.mdpi.com/2072-4292/14/9/2063', 'https://oceanexplorer.noaa.gov/news/oer-updates/2023/ak-ca-uncrewed-mapping.html', 'https://oceanexplorer.noaa.gov/news/oer-updates/2021/two-million.html', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/bubble-vent-localization-for-marine-hydrocarbon-seep-surveys_2022.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/multibeamsonarbackscatterdataprocessing_2018.pdf', 'https://www.youtube.com/watch?v=_xqsiRIIts0', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em_technical_note_web_backscatteringseabedimagereflectivity.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/em-sector-coverage-beam-spacing-modes.pdf', '/contentassets/058cd4fb2f1d417dab5f444f8f5cbf9a/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf'], 'Data sheets': ['/contentassets/37b2b502e3d549d6ab66dcd5d551e750/463787aa_em304_mkii_data_sheet.pdf', '/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/464489ae_hws_mc3xx_data_sheet_02.pdf', '/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/446295c_sis5_data_sheet.pdf', '/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/01.sis-remote-2p-26.05.21.pdf'], 'Manuals': ['/contentassets/37b2b502e3d549d6ab66dcd5d551e750/467936aa_em304mk2_installation_manual_en.pdf', '/contentassets/7653073f4215463b80936a426a1a0d11/470434a_em304mkii_maintenance_manual.pdf', '/contentassets/7653073f4215463b80936a426a1a0d11/160692ax_em_datagram_formats.pdf', '/contentassets/7653073f4215463b80936a426a1a0d11/410224ai_01_em_dgm_format.zip', '/contentassets/7653073f4215463b80936a426a1a0d11/495770ab_hws_instruction_manual.pdf'], 'Software': ['/maritime/support/document-and-downloads/software-downloads/'], 'Technical notes': ['/contentassets/5e174bf20700424bb9840e4297571247/454146_d-sound-levels-from-kongsberg-multibeam.pdf', '/contentassets/5e174bf20700424bb9840e4297571247/420527ad_transducer_painting_instruction.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1431,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/427620_em304_installation_manual_en.pdf, https://www.kongsberg.com/contentassets/364a22fe061545ae846d396619d88b82/458500aa_em304_maintenance_manual.pdf, https://www.kongsberg.com/contentassets/364a22fe061545ae846d396619d88b82/160692_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/60fa3dd22abd45b09b97ff7271302187/495770aa_hws_instruction_manual.pdf, https://www.kongsberg.com/contentassets/a86d09cab9fc423881ea38c6edafa98f/multibeam-intensity-v2022.pdf</t>
+          <t>{'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/em-304-multibeam-echosounder/Download'], 'Manuals': ['/globalassets/maritime/km-products/product-documents/427620_em304_installation_manual_en.pdf', '/contentassets/364a22fe061545ae846d396619d88b82/458500aa_em304_maintenance_manual.pdf', '/contentassets/364a22fe061545ae846d396619d88b82/160692_em_datagram_formats.pdf', '/contentassets/364a22fe061545ae846d396619d88b82/410224ai_01_em_dgm_format.zip', '/contentassets/60fa3dd22abd45b09b97ff7271302187/495770aa_hws_instruction_manual.pdf'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/'], 'Product description': ['/globalassets/maritime/km-products/product-documents/synchronization-unit---k-synk/'], 'Technical note': ['/globalassets/maritime/km-products/product-documents/multibeam-survey-planning---the-key-to-success/', '/globalassets/maritime/km-products/product-documents/sector-coverage-and-beam-spacing-modes-for-multibeam-echosounders/', '/contentassets/a86d09cab9fc423881ea38c6edafa98f/multibeam-intensity-v2022.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1453,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/2cd9ea2a6e48426c962e006edaa07bdf/discovering-the-redefined-em-series-2022.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/integrated-solution-for-seafloor-mapping-processing-and-distribution.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/multifrequency-seafloor-backscatter_2020.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em_technical_note_web_backscatteringseabedimagereflectivity.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em-sector-coverage-beam-spacing-modes.pdf, https://www.kongsberg.com/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/datasheet_em_712.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/01.sis-remote-2p-26.05.21.pdf, https://www.kongsberg.com/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/401027ac_em712_installation_manual.pdf, https://www.kongsberg.com/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/451106_em712_maintenance_manual_en.pdf, https://www.kongsberg.com/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/160692ax_em_datagram_formats.pdf, https://www.kongsberg.com/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/495770ab_hws_instruction_manual.pdf, https://www.kongsberg.com/contentassets/ee239310072142a69196fb6ab3427bee/454146_d-sound-levels-from-kongsberg-multibeam.pdf, https://www.kongsberg.com/contentassets/ee239310072142a69196fb6ab3427bee/420527ad_transducer_painting_instruction.pdf</t>
+          <t>{'Application notes': ['/contentassets/2cd9ea2a6e48426c962e006edaa07bdf/discovering-the-redefined-em-series-2022.pdf'], 'Articles &amp; papers': ['/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/integrated-solution-for-seafloor-mapping-processing-and-distribution.pdf', 'https://mac.unols.org/reports/', 'https://www.mdpi.com/2072-4292/14/9/2063', 'https://ccom.unh.edu/seminars/miguel-candido-thesis-defense', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/multifrequency-seafloor-backscatter_2020.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-advanced.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em_technical_note_web_backscatteringseabedimagereflectivity.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-em-runtime-parameters-filters-and-gains-basic.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em-technical-note-multibeam-survey-planning-the-key-to-success.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/em-sector-coverage-beam-spacing-modes.pdf', '/contentassets/72ba5b2377d8463f8c5564ad9eb2790f/kongsberg-em-technical-note-the-advantages-of-yaw-stabilization.pdf'], 'Data sheets': ['/contentassets/2c197a1f0a33461b9642276e31b67fb7/datasheet_em_712.pdf', '/contentassets/2c197a1f0a33461b9642276e31b67fb7/464489ae_hws_mc3xx_data_sheet_02.pdf', '/contentassets/2c197a1f0a33461b9642276e31b67fb7/446295c_sis5_data_sheet.pdf', '/contentassets/2c197a1f0a33461b9642276e31b67fb7/01.sis-remote-2p-26.05.21.pdf'], 'Manuals': ['/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/401027ac_em712_installation_manual.pdf', '/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/451106_em712_maintenance_manual_en.pdf', '/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/160692ax_em_datagram_formats.pdf', '/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/410224ai_01_em_dgm_format.zip', '/contentassets/270cdfb4fdb64e43a75dcc0b6eaf97a6/495770ab_hws_instruction_manual.pdf'], 'Software': ['/maritime/support/document-and-downloads/software-downloads/'], 'Technical notes': ['/contentassets/ee239310072142a69196fb6ab3427bee/454146_d-sound-levels-from-kongsberg-multibeam.pdf', '/contentassets/ee239310072142a69196fb6ab3427bee/420527ad_transducer_painting_instruction.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1469,11 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/aqualink/']}</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1455,7 +1487,11 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1475,7 +1511,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/0d2751ec14f74850bf4106ace4472d5f/datasheet_seanav300.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/mfd/datasheet_mfd307_aug18.pdf</t>
+          <t>{'Data sheets': ['/contentassets/0d2751ec14f74850bf4106ace4472d5f/datasheet_seanav300.pdf', '/globalassets/maritime/snr-files/mfd/datasheet_mfd307_aug18.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1529,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsi1_aug22.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/443866f_ds_dpsi2.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048136_ds_a---dpsi3.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0012621b_dpsi4_ds_oct22.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048137_ds_a---dpsi6.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps5d.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dgnss3710.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsdisplayunit.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps112.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps114.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/reference-systems-and-solutions-for-offshore-support-vessels/', '/globalassets/maritime/km-products/product-documents/reference-systems-for-fpso/'], 'Data sheets': ['/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsi1_aug22.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/443866f_ds_dpsi2.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048136_ds_a---dpsi3.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/110-0012621b_dpsi4_ds_oct22.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048137_ds_a---dpsi6.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps5d.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dgnss3710.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsdisplayunit.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps112.pdf', '/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps114.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1551,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/110-0042313a_datasheet_darps232_jun23.pdf, https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_darps900b.pdf, https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_dgnss3710.pdf</t>
+          <t>{'Data sheets': ['/contentassets/7162715d5e3941838b97b22c33b57aae/110-0042313a_datasheet_darps232_jun23.pdf', '/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_darps900b.pdf', '/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_dgnss3710.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1573,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/f8c817520a594f678aa232adbc73a4f8/datasheet_seapos300.pdf</t>
+          <t>{'Data sheet': ['/contentassets/f8c817520a594f678aa232adbc73a4f8/datasheet_seapos300.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1591,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/908f79d5012e4bfba5345fa62e5ba41c/301416aa-hain-position-reference-pd.pdf, https://www.kongsberg.com/contentassets/908f79d5012e4bfba5345fa62e5ba41c/hain_-a-new-reference-for-dp-of-vessels.pdf, https://www.kongsberg.com/contentassets/908f79d5012e4bfba5345fa62e5ba41c/kongsberg-hain-folder.pdf</t>
+          <t>{'Product description': ['/contentassets/908f79d5012e4bfba5345fa62e5ba41c/301416aa-hain-position-reference-pd.pdf', '/contentassets/908f79d5012e4bfba5345fa62e5ba41c/hain_-a-new-reference-for-dp-of-vessels.pdf', '/contentassets/908f79d5012e4bfba5345fa62e5ba41c/kongsberg-hain-folder.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1613,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/471738b_ds_hms300_oct22.pdf, https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/datasheet_avr100.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/documents/hms-monitoring-system-statement-of-compliance-kongsberg.pdf</t>
+          <t>{'Data sheet': ['/contentassets/587a526dc451456eb14a0eb82c31554d/471738b_ds_hms300_oct22.pdf', '/contentassets/587a526dc451456eb14a0eb82c31554d/datasheet_avr100.pdf'], 'Compliance': ['/globalassets/maritime/km-products/documents/hms-monitoring-system-statement-of-compliance-kongsberg.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1631,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/3d-inspection-of-bridge-sub-structural-elements.pdf, https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/bridge-visualization.pdf, https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/search--recovery-sonar-system.pdf, https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/shipwreck-documentation-rev1.pdf, https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/vertical-visualization-of-structure-v2.pdf</t>
+          <t>{'Related publications': ['https://www.mesotech.online/high_res_sonar/documents.htm', 'https://www.mesotech.online/domed_sonar/documents.htm'], 'APPLICATION NOTES': ['/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/3d-inspection-of-bridge-sub-structural-elements.pdf', '/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/bridge-visualization.pdf', '/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/search--recovery-sonar-system.pdf', '/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/shipwreck-documentation-rev1.pdf', '/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/vertical-visualization-of-structure-v2.pdf'], 'Software Download': ['~/link/0bd2bfacc7204005b8e2f1552bf3adae.aspx']}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1653,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/contentassets/431e77b86c284034ba6ce076f7861349/419427c-hipap502-hlu-inm-lowres.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf, https://www.kongsberg.com/contentassets/9182b1c1863f4ad794fb93885932f97d/400578f-hipap-pd.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388880j.pdf, https://www.kongsberg.com/contentassets/193e34af76bf43edb2655221b3da64fd/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf'], 'Manuals': ['/contentassets/431e77b86c284034ba6ce076f7861349/419427c-hipap502-hlu-inm-lowres.pdf', '/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf', '/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf', '/globalassets/maritime/km-products/product-documents/hipap-502_452_352_102-system-hull-units-instruction-manual/'], 'Product description': ['/contentassets/9182b1c1863f4ad794fb93885932f97d/400578f-hipap-pd.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388880j.pdf', '/contentassets/193e34af76bf43edb2655221b3da64fd/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1675,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/15c1acf9071e4929a0046de2252b3e21/400578f-hipap-pd.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388880j.pdf, https://www.kongsberg.com/contentassets/c3569c71e6824a28bcb761d437b36a6b/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Application note': ['/globalassets/maritime/km-products/product-documents/hipap-and-hpr-calibration-tool/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/hipap-102p/'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/hipap-102p-instruction-manual/', '/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf'], 'Product description': ['/contentassets/15c1acf9071e4929a0046de2252b3e21/400578f-hipap-pd.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388880j.pdf', '/contentassets/c3569c71e6824a28bcb761d437b36a6b/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1697,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/contentassets/49c40233246641b996e4180dd6ec78a3/419427c-hipap502-hlu-inm-lowres.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf, https://www.kongsberg.com/contentassets/7a73952ac48b4ca3900423dc35f6b142/400578f-hipap-pd.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388880j.pdf, https://www.kongsberg.com/contentassets/19e28bf081524640b7ad3a7d13edf4d9/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf'], 'Manuals': ['/contentassets/49c40233246641b996e4180dd6ec78a3/419427c-hipap502-hlu-inm-lowres.pdf', '/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf', '/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf', '/globalassets/maritime/km-products/product-documents/hipap-502_452_352_102-system-hull-units-instruction-manual/'], 'Product description': ['/contentassets/7a73952ac48b4ca3900423dc35f6b142/400578f-hipap-pd.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/Download'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/Download'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388880j.pdf', '/contentassets/19e28bf081524640b7ad3a7d13edf4d9/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1719,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hipap-352p-product-sheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/contentassets/09e84619ddbc4191b08aafeff91ce2e9/422971c-hipap-352p-inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388880j.pdf, https://www.kongsberg.com/contentassets/5f535028e410487789169407e16bbca3/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Application note': ['/globalassets/maritime/km-products/product-documents/hipap-and-hpr-calibration-tool/', '/globalassets/maritime/km-products/product-documents/tow-fish-tracking/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/hipap-352p-product-sheet.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/apos-for-hipap-model-501_451_351_101-instruction-manual/', '/contentassets/09e84619ddbc4191b08aafeff91ce2e9/422971c-hipap-352p-inm.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388880j.pdf', '/contentassets/5f535028e410487789169407e16bbca3/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1741,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/contentassets/da8ec4da593f4fada0efcbbd7bee5487/419427c-hipap502-hlu-inm-lowres.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf, https://www.kongsberg.com/contentassets/da8ec4da593f4fada0efcbbd7bee5487/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf, https://www.kongsberg.com/contentassets/6ba426ff76e24c66a34e5caec5395946/400578f-hipap-pd.pdf, https://www.kongsberg.com/contentassets/970f42215282452191d294e50ac4c279/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf'], 'Manuals': ['/contentassets/da8ec4da593f4fada0efcbbd7bee5487/419427c-hipap502-hlu-inm-lowres.pdf', '/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf', '/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf', '/contentassets/da8ec4da593f4fada0efcbbd7bee5487/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf'], 'Product description': ['/contentassets/6ba426ff76e24c66a34e5caec5395946/400578f-hipap-pd.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/Download'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/Download'], 'Software release note': ['/contentassets/970f42215282452191d294e50ac4c279/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1763,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf, https://www.kongsberg.com/contentassets/a30ad9d3f6cc4679b132e830b486b08b/419427c-hipap502-hlu-inm-lowres.pdf, https://www.kongsberg.com/contentassets/a30ad9d3f6cc4679b132e830b486b08b/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf, https://www.kongsberg.com/contentassets/a9873e90ddb948a88ef4776918fb1957/400578f-hipap-pd.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/388880j.pdf, https://www.kongsberg.com/contentassets/5afdff39db71447ca278a2992715dfc1/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx', '/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf'], 'Manual': ['/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf', '/contentassets/49c40233246641b996e4180dd6ec78a3/325840h_hipap_cable_plan.pdf', '/contentassets/a30ad9d3f6cc4679b132e830b486b08b/419427c-hipap502-hlu-inm-lowres.pdf', '/contentassets/a30ad9d3f6cc4679b132e830b486b08b/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf'], 'Product description': ['/contentassets/a9873e90ddb948a88ef4776918fb1957/400578f-hipap-pd.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/apos-trainer/'], 'Product notice': ['/globalassets/maritime/km-products/product-documents/hipap---use-of-third-party-wideband-transponders/'], 'Software release note': ['/globalassets/maritime/km-products/product-documents/388880j.pdf', '/contentassets/5afdff39db71447ca278a2992715dfc1/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1785,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/440337_hipap_502p_inm.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164085ac_apostrainer_product_specification.pdf, https://www.kongsberg.com/contentassets/10b04fbccd6a44e5bd1ca9c30df526a8/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/430801-hipap-sw-lbl-positioning-info-letter.pdf', '/globalassets/maritime/km-products/product-documents/415197-mean-sound-velocity-info-letter.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/440337_hipap_502p_inm.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/164085ac_apostrainer_product_specification.pdf'], 'Software release notes': ['/contentassets/10b04fbccd6a44e5bd1ca9c30df526a8/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1807,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/16672e966d5e479495cacfc61116d147/476666a-hipap-602-datasheet.pdf, https://www.kongsberg.com/contentassets/6efb467e632d4832903b82ba671aee66/419427c-hipap502-hlu-inm-lowres.pdf, https://www.kongsberg.com/contentassets/6efb467e632d4832903b82ba671aee66/325840h_hipap_cable_plan.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf, https://www.kongsberg.com/contentassets/6efb467e632d4832903b82ba671aee66/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf, https://www.kongsberg.com/contentassets/06165324ca3641e98ad66fc59f0b90d9/hipap-4_5_0-release-note.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Datasheet': ['/contentassets/16672e966d5e479495cacfc61116d147/476666a-hipap-602-datasheet.pdf'], 'Manuals': ['/contentassets/6efb467e632d4832903b82ba671aee66/419427c-hipap502-hlu-inm-lowres.pdf', '/contentassets/6efb467e632d4832903b82ba671aee66/325840h_hipap_cable_plan.pdf', '/globalassets/maritime/snr-files/hipap/396013f-hipap-inm.pdf', '/contentassets/6efb467e632d4832903b82ba671aee66/hipap-502_452_352_102-system-hull-units-instruction-manual.pdf'], 'Software release notes': ['/contentassets/06165324ca3641e98ad66fc59f0b90d9/hipap-4_5_0-release-note.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1829,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/c903ce5249fb4f66bba8825397736c22/476665a-hain-subsea-7000-datasheet.pdf</t>
+          <t>{'Data sheet': ['/contentassets/c903ce5249fb4f66bba8825397736c22/476665a-hain-subsea-7000-datasheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1851,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/e667920315fb46108af0ff718e180f68/datasheet_kcc.pdf</t>
+          <t>{'Data sheet': ['/contentassets/e667920315fb46108af0ff718e180f68/datasheet_kcc.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1873,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/9389e78c01a54fa6bc6a6821de3009f3/110-0040129a_ds_proximityview100_may23.pdf</t>
+          <t>{'Data sheet': ['/contentassets/9389e78c01a54fa6bc6a6821de3009f3/110-0040129a_ds_proximityview100_may23.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1895,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/19ab735d43d04dc583f9ad9fb8330e1e/398737_underwater-mapping-brochure_-september-2016_print.pdf, https://www.kongsberg.com/contentassets/1e171f0a51264694b7bd957d8d9da705/342741ac_ksync_installation_manual.pdf, https://www.kongsberg.com/contentassets/1e171f0a51264694b7bd957d8d9da705/342435ab_k-sync_operator-manual.pdf, https://www.kongsberg.com/contentassets/89d92a7c72f54aecb710036e5aec19db/355198ab_k-sync_1.9.0_releasenote.pdf, https://www.kongsberg.com/contentassets/bad82321c32e438aa4c883f7d671f3d1/110-0056259aa_k-sync_notice_of_maintanance_period.pdf</t>
+          <t>{'Brochure': ['/contentassets/19ab735d43d04dc583f9ad9fb8330e1e/398737_underwater-mapping-brochure_-september-2016_print.pdf'], 'Manual': ['/contentassets/1e171f0a51264694b7bd957d8d9da705/342741ac_ksync_installation_manual.pdf', '/contentassets/1e171f0a51264694b7bd957d8d9da705/342435ab_k-sync_operator-manual.pdf'], 'Download software': ['/contentassets/89d92a7c72f54aecb710036e5aec19db/355198ab_k-sync_1.9.0_releasenote.pdf', '/maritime/support/document-and-downloads/software-downloads/'], 'Technical Note': ['/contentassets/bad82321c32e438aa4c883f7d671f3d1/110-0056259aa_k-sync_notice_of_maintanance_period.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1917,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrack.pdf, https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrackprisms.pdf, https://www.kongsberg.com/contentassets/fb58780c08354b03827d844e7f523448/productsheet_spottrack.pdf</t>
+          <t>{'Data sheet': ['/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrack.pdf', '/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrackprisms.pdf'], 'Product sheet': ['/contentassets/fb58780c08354b03827d844e7f523448/productsheet_spottrack.pdf'], 'Testimonial': ['/globalassets/maritime/km-products/product-documents/zakher-marine-international-inc/']}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1939,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/aefda46a15ae491fb71a724a2e4782bd/mbr_family.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_personal.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_submersible.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_uav_jun23.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_oem.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mkii.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2portable.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2portable.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_sep22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_submersible_sep22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_oem_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fcc_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fccportable_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2_fcc_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2fccportable_aug22.pdf, https://www.kongsberg.com/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144.pdf, https://www.kongsberg.com/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144oem.pdf, https://www.kongsberg.com/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144personal.pdf, https://www.kongsberg.com/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144submersible.pdf</t>
+          <t>{'Article': ['/globalassets/maritime/km-products/product-documents/innovative-maritime-communication-solution-put-to-test/', '/maritime/about-us/news-and-media/blog-stories/mbr-in-sortland/'], 'Brochures': ['/contentassets/aefda46a15ae491fb71a724a2e4782bd/mbr_family.pdf'], 'Data sheets MBR': ['/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_personal.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_submersible.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_uav_jun23.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_oem.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mkii.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2portable.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2portable.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_sep22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_submersible_sep22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_oem_aug22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fcc_aug22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fccportable_aug22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2_fcc_aug22.pdf', '/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2fccportable_aug22.pdf'], 'Manuals': ['/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144.pdf', '/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144oem.pdf', '/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144personal.pdf', '/contentassets/892d89106a064ae4b8f10e9e630d689a/man_instruction_mbr144submersible.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1955,11 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1939,7 +1979,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf, https://www.kongsberg.com/contentassets/74abdf0f29314872b3647153edb20114/393495l-pap-datasheet.pdf, https://www.kongsberg.com/contentassets/74abdf0f29314872b3647153edb20114/481073b-pap-201-c-datasheet.pdf, https://www.kongsberg.com/contentassets/a97953bc31f948acb09483a3657f49c3/393483h-pap-inm.pdf, https://www.kongsberg.com/contentassets/a97953bc31f948acb09483a3657f49c3/494326b-pap-201-c-inm.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf'], 'Data sheets': ['/contentassets/74abdf0f29314872b3647153edb20114/393495l-pap-datasheet.pdf', '/contentassets/74abdf0f29314872b3647153edb20114/481073b-pap-201-c-datasheet.pdf'], 'Manual': ['/contentassets/a97953bc31f948acb09483a3657f49c3/393483h-pap-inm.pdf', '/contentassets/a97953bc31f948acb09483a3657f49c3/494326b-pap-201-c-inm.pdf']}</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1997,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru2.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru3.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5mkii.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrud.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrue.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mruh.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrus.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/461546b_datasheet_mgc_recal_nov23.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheets': ['/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru2.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru3.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5mkii.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrud.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrue.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mruh.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrus.pdf', '/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/461546b_datasheet_mgc_recal_nov23.pdf'], 'Product leaflet': ['/globalassets/maritime/km-products/product-documents/the-mru-family-of-products/']}</t>
         </is>
       </c>
     </row>
@@ -1973,7 +2013,11 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1987,7 +2031,11 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{'Technical information': ['https://www.mesotech.online/flexview/documents.htm'], 'Software Download': ['/maritime/contact/mesotech-request-software/']}</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2001,7 +2049,11 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{'Related publications': ['https://www.mesotech.online/m3_sonar/documents.htm'], 'Software downloads': ['/maritime/contact/mesotech-request-software/'], 'Study': ['/globalassets/maritime/km-products/product-documents/m3-sonar---survey-of-debris-accumulation-at-a-nuclear-power-plant/'], 'Article': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution/'], 'PowerPoint presentation': ['/globalassets/maritime/km-products/product-documents/integrated-solution-for-seafloor-mapping-processing-and-distribution2/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx']}</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2017,7 +2069,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027778a_datasheet_xpr100_feb23.pdf, https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027790a_datasheet_xpr100ex_feb23.pdf, https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027949a_datasheet_xpr100exlp_feb23.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheets': ['/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027778a_datasheet_xpr100_feb23.pdf', '/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027790a_datasheet_xpr100ex_feb23.pdf', '/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027949a_datasheet_xpr100exlp_feb23.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2087,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/110-0030758b_datasheet_radius2000_mar23.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius550x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius600x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius800x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radiusexbattery.pdf</t>
+          <t>{'Article': ['/globalassets/maritime/km-products/product-documents/safety-for-statoil/'], 'Brochure': ['/globalassets/maritime/km-products/product-documents/reference-systems-and-solutions-for-offshore-support-vessels/', '/globalassets/maritime/km-products/product-documents/reference-systems-for-fpso/'], 'Data sheets': ['/contentassets/afb048f8c2584b379af4b51eed83d2e7/110-0030758b_datasheet_radius2000_mar23.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius550x.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius600x.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700x.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius800x.pdf', '/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radiusexbattery.pdf'], 'Product sheet': ['/globalassets/maritime/km-products/product-documents/radius/']}</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2105,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/390297.pdf</t>
+          <t>{'Software release note': ['/globalassets/maritime/km-products/product-documents/390297.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2123,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi2.pdf, https://www.kongsberg.com/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi4.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheets': ['/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi2.pdf', '/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi4.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2145,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/37784f493caf4b4a9bb8e22133fff5ee/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/37784f493caf4b4a9bb8e22133fff5ee/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2161,11 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{'Simrad Hydrophones End-user documentation and installation drawings': ['https://www.simrad.net/fisherycatch/hyd_portable.htm', 'https://www.simrad.net/fisherycatch/hyd_purse.htm', 'https://www.simrad.net/fisherycatch/hyd_trawl.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2123,7 +2179,11 @@
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{'Simrad Hydrophones End-user documentation and installation drawings': ['https://www.simrad.net/fisherycatch/hyd_portable.htm', 'https://www.simrad.net/fisherycatch/hyd_purse.htm', 'https://www.simrad.net/fisherycatch/hyd_trawl.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2137,7 +2197,11 @@
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{'Simrad Hydrophones End-user documentation and installation drawings': ['https://www.simrad.net/fisherycatch/hyd_portable.htm', 'https://www.simrad.net/fisherycatch/hyd_purse.htm', 'https://www.simrad.net/fisherycatch/hyd_trawl.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2157,7 +2221,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/5f4fa3d6d9704fabb3b2ee8282b5a66a/datasheet---m3-sonar-phs-nov.-2018.pdf, https://www.kongsberg.com/contentassets/43b634bbdd8046cd86163e8d7aeab311/m3-sonar-phs---november-2018.pdf</t>
+          <t>{'Data sheet': ['/contentassets/5f4fa3d6d9704fabb3b2ee8282b5a66a/datasheet---m3-sonar-phs-nov.-2018.pdf'], 'Application note': ['/contentassets/43b634bbdd8046cd86163e8d7aeab311/m3-sonar-phs---november-2018.pdf'], 'Related publications': ['https://www.mesotech.online/m3_sonar_phs/documents.htm']}</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2237,11 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2187,7 +2255,11 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2207,7 +2279,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/1d16a9142d0f46e2b2ee68445583a180/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/1d16a9142d0f46e2b2ee68445583a180/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2301,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/33812dcfb17f45ffa4ad34629d464c78/datasheet_blueinsight.pdf</t>
+          <t>{'DATA SHEET': ['/contentassets/33812dcfb17f45ffa4ad34629d464c78/datasheet_blueinsight.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2319,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/429941_ea400_power.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/160981_ea400_operator_manual.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/globalassets/maritime/km-products/product-documents/200-khz---0.5x49-side-looking-echo-sounder-transducer', '/globalassets/maritime/km-products/product-documents/ea400-hydrographic-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/ea400-survey-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/ea400_600-sidescan-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/ea400sp-portable-splashproof-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/429941_ea400_power.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/160981_ea400_operator_manual.pdf'], 'Paper': ['/globalassets/maritime/km-products/product-documents/combining-multibeam-with-sidescan/'], 'Reference guide': ['/globalassets/maritime/km-products/product-documents/ea-rds-single-beam-echo-sounder/']}</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2337,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164023_120-25.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2355,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_012/12_16_60/sales/12_16_60_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2373,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_018/18_11/sales/18_11_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2395,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2413,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164021_200-7f.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2431,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164011_200-7g.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2453,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/38_200_combi_c/sales/38_200_combi_c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2475,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/38_200_combi_d/sales/38_200_combi_d_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2497,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/38_7/sales/38_7_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2519,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/38_9/sales/38_9_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2537,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164052_50-200_combi_c.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/165183_50-200_combi_c_installation_manual.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2555,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164211_50-200_combi_d.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/165216_50-200_combi_d_ins.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2573,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160965ab.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2591,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160964_50-18por.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2609,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164331ab_50-7_product_specification_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/203337ab_mounting_ring_with_dwg.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/203430ab_blister_with_dwg.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/305270aa_50-7_installation_manual_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2625,11 @@
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>{'Downloads': ['/maritime/products/bridge-systems-and-control-centres/broadband-radios/br90/br90docs/']}</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2569,7 +2645,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/c-all/sales/c_all_ds_en_a4.pdf</t>
+          <t>{'Datasheet': ['https://www.simrad.online/c-all/sales/c_all_ds_en_a4.pdf'], 'End-user documentation': ['https://www.simrad.net/c-all/documents.htm', 'https://www.simrad.net/c-all/drawings.htm', 'https://www.simrad.net/c-all/sales.htm', 'https://www.simrad.net/c-all/documents.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/c-all/ins_en/']}</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2661,11 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>{'End-user documentation': ['https://simrad.net/cp200-5c/documents.htm', 'https://simrad.net/cp200-5c/documents.htm', 'https://simrad.net/cp200-5c/documents.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/cp200_5c/ins_en/index.htm', 'https://www.simrad.online/sy50/ins_fr/index.htm'], 'Simrad product catalogue': ['https://www.simrad.net/cat/catalogues.htm']}</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2599,7 +2679,11 @@
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>{'Pages': ['/maritime/products/commercial-fisheries/fisheryadcp/cp60/cp60docs/', '/maritime/products/commercial-fisheries/fisheryadcp/cp60/cp60sw/', '/maritime/products/commercial-fisheries/fisheryadcp/cp60/cp60sys/', '/maritime/products/commercial-fisheries/fisheryadcp/cp60/cp60procunit/'], 'Related transducers': ['/maritime/products/commercial-fisheries/td/200-khz/cp200-5c/'], 'Available documents': ['https://www.simrad.net/cp60/documents.htm', 'https://www.simrad.net/cp60/documents.htm', 'https://www.simrad.net/cp60/installation.htm', 'https://www.simrad.net/cp60/drawings.htm', 'https://www.simrad.net/cp60/sales.htm', 'https://www.simrad.net/cp60/certificates.htm', 'https://www.simrad.net/cp60/swrn.htm', 'https://www.simrad.net/cp60/installation.htm', 'https://www.simrad.net/cp60/documents.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Context-sensitive online help': ['https://www.simrad.online/fisherysounder/help/online_help_en/']}</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2613,7 +2697,11 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>{'Pages': ['/maritime/products/commercial-fisheries/fisherysonar/cs90/cs90sys/', '/maritime/products/commercial-fisheries/fisherysonar/cs90/simrad-cs90-transducer/', '/maritime/products/commercial-fisheries/fisherysonar/cs90/simrad-cs90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/cs90/cs90docs/', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/'], 'End-user documentation': ['https://www.simrad.net/cs90/documents.htm', 'https://www.simrad.net/cs90/installation.htm', 'https://www.simrad.net/cs90/drawings.htm', 'https://www.simrad.net/cs90/sales.htm', 'https://www.simrad.net/cs90/swrn.htm', 'https://www.simrad.net/cs90/certificates.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/cs90/ins_en/', 'https://www.simrad.online/cs90/ins_es/', 'https://www.simrad.online/cs90/ins_fr/'], 'Online IETM Operator manuals': ['https://www.simrad.online/cs90/opm_en/', 'https://www.simrad.online/cs90/opm_es/', 'https://www.simrad.online/cs90/opm_fr/'], 'Online IETM Reference manuals': ['https://www.simrad.online/cs90/ref_en/']}</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2629,7 +2717,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/ek80_adcp_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2733,11 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2661,7 +2753,7 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english_lores.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/201035ac-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/215556aa-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/305274aa-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/341305aa_processor_unit_outline_dimensions_with_dwg.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/359619aa_ek60_apc12_installation_manual.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/385609ab_with_dwg.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/407919ab_ek60_installation_manual_korean.pdf, https://simrad.online/ek60/ek60_ref_en_a4.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/operation/405439aa_ek60_reference_manual_korean.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/305045aa_ek60_multifrequency_operation_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/165139aa_ek60_wireless_applications_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/333111ab_simrad_scientfic_products_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/364817aa_simrad_scientific_products_russian.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/software/208028ah_ek60_software_release_note_2_4_3.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/205686ac_ek60_declaration_of_conformity_signed.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377545aa_material_declaration_gpt_18_khz-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377547aa_material_declaration_gpt_38_khz-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377548aa_material_declaration_gpt_70_khz-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377550aa_material_declaration_gpt_120_khz-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377551aa_material_declaration_gpt_200_khz-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377552aa_material_declaration_gpt_333_khz-1.pdf</t>
+          <t>{'Installation': ['/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english_lores.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/201035ac-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/215556aa-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/305274aa-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/341305aa_processor_unit_outline_dimensions_with_dwg.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/359619aa_ek60_apc12_installation_manual.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/385609ab_with_dwg.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/407919ab_ek60_installation_manual_korean.pdf'], 'Operation': ['https://simrad.online/ek60/ek60_ref_en_a4.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/operation/405439aa_ek60_reference_manual_korean.pdf'], 'Sales': ['/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/305045aa_ek60_multifrequency_operation_english.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/165139aa_ek60_wireless_applications_english.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/333111ab_simrad_scientfic_products_english.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/sales/364817aa_simrad_scientific_products_russian.pdf'], 'Software': ['/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/software/208028ah_ek60_software_release_note_2_4_3.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/software/trlist.ini'], 'Certificates': ['/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/205686ac_ek60_declaration_of_conformity_signed.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377545aa_material_declaration_gpt_18_khz-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377547aa_material_declaration_gpt_38_khz-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377548aa_material_declaration_gpt_70_khz-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377550aa_material_declaration_gpt_120_khz-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377551aa_material_declaration_gpt_200_khz-1.pdf', '/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/certificates/377552aa_material_declaration_gpt_333_khz-1.pdf']}</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2775,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_120/es120_18cdk/es120_18cdk_ds_en.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2797,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_120/es120_7c/es120_7c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2819,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://simrad.online/td_120/es120_7cd/es120_7cd_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2837,7 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164289_es120-7dd.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2855,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164125_es120-7g.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2877,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_018/es18/sales/es18_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2895,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2917,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://simrad.online/td_200/es200_7cd/es200_7cd_ds_en_a4.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2939,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_200/es200_7cdk/sales/es200_7cdk_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2957,7 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_333/es333_7c/es333_7c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2975,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://simrad.online/td_333/es333_7cd/es333_7cd_ds_en_a4.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2993,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/es333/429710aa_es333_7cdk_split_data_sheet_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/es333/416369aa_with_dwg.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2923,7 +3015,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38_10/sales/es38_10_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2945,7 +3037,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38_12/sales/es38_12_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2963,7 +3055,7 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38_18_200_18c/sales/es38_18_200_18c_ds_en.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3073,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38_18_200_18cr/sales/es38_18_200_18cr_ds_en.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -2999,7 +3091,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://simrad.online/td_038/es38_18dk/es38_18dk_ds_en_a4.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3109,7 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38_7/sales/es38_7_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3127,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/164247ae_es38b_data_sheet_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/065080aa_arctic_tank_outline_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/065238ad_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/074076ae_es38b_3-7_mounting_ring_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/074077aa_steel_blister-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/074544af_es38b_3-7_mounting_arrangement_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/074647ac_es38b_3-7_outline_dimensions_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/082733aa_steel_blister_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/088759ab_mounting_procedure_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/133807ab_steel_tank_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/206574aa_support_beam_mounting_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/206576aa_support_beam_drilling_template_with_dwg-1.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/338462ab_es38b_installation_english.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/342215aa_es38b_material_declaration.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3149,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_038/es38dd/sales/es38dd_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3165,11 @@
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>{'Downloads': ['/maritime/products/commercial-fisheries/fisherysounder/es70/es70docs/']}</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3089,7 +3185,7 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/110378ac.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/110383aa.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/164126_es70-11.pdf, https://www.kongsberg.com/globalassets/discovery/simrad/transducers/_generic-transducer-blocks/160164ah_transducer_installation_english.pdf</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3203,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://simrad.online/td_070/es70_18cd/es70_18cd_ds_en.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3225,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/td_070/es70_7c/sales/es70_7c_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3243,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/es70_7cd_ds_english.pdf, https://www.simrad.online/td_070/es70_7cd/es70_7cd_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3259,11 @@
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>{'Pages': ['/maritime/products/commercial-fisheries/fisherysounder/es80/es80docs/', '/maritime/products/commercial-fisheries/fisherysounder/es80/es80sw/', '/maritime/products/commercial-fisheries/fisherysounder/es80/es80adcp/', '/maritime/products/commercial-fisheries/fisherysounder/nise-3900e/', 'https://www.simrad.net/es80/order.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Available documents': ['https://www.simrad.net/es80/documents.htm', 'https://www.simrad.net/es80/documents.htm', 'https://www.simrad.net/es80/installation.htm', 'https://www.simrad.net/es80/drawings.htm', 'https://www.simrad.net/es80/sales.htm', 'https://www.simrad.net/es80/certificates.htm', 'https://www.simrad.net/es80/swrn.htm', 'https://www.simrad.net/es80/installation.htm'], 'Context-sensitive online help': ['https://www.simrad.online/fisherysounder/help/online_help_en/'], 'Interactive reference manuals': ['https://www.simrad.online/es80/ref_en/', 'https://www.simrad.online/es80/ref_es/', 'https://www.simrad.online/es80/ref_fr'], 'Interactive installation manuals': ['https://www.simrad.online/es80/ins_en/', 'https://www.simrad.online/es80/ins_es/', 'https://www.simrad.online/es80/ins_fr']}</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3177,7 +3277,11 @@
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3191,7 +3295,11 @@
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3211,7 +3319,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/fx/sales/fx_brochure_en_a4.pdf</t>
+          <t>{'Simrad FX System brochure': ['https://www.simrad.online/fx/sales/fx_brochure_en_a4.pdf'], 'Simrad FX Interactive system guide': ['https://mesotech.online/fx/'], 'Available documents': ['https://www.simrad.net/fx/documents.htm', 'https://www.simrad.net/fx/sales.htm', 'https://www.simrad.net/fx/drawings.htm', 'https://www.simrad.net/fx/swrn.htm'], 'Online IETM Reference manuals': ['https://www.simrad.online/fx/ref_en/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3335,11 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3243,7 +3355,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/mf90/sales/mf90_ds_en_a4.pdf, https://www.simrad.online/mf90/sales/mf90_ds_es_a4.pdf</t>
+          <t>{'Pages': ['https://www.simrad.net/mf90/sales.htm', '/maritime/products/commercial-fisheries/fisherysonar/mf90/technical-specifications/', '/maritime/products/commercial-fisheries/fisherysonar/mf90/simrad-mf90-system-diagram/', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/', '/maritime/products/commercial-fisheries/fisherysonar/mf90/simrad-mf90-hull-units/', '/maritime/products/commercial-fisheries/fisherysonar/mf90/simrad-mf90-transducer/', '/maritime/products/commercial-fisheries/fisherysonar/mf90/simrad-mf90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/mf90/simrad-mf90-end-user-documentation/', 'https://www.simrad.net/mf90/drawings.htm', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', 'https://www.simrad.net/mf90/order.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Datasheet': ['https://www.simrad.online/mf90/sales/mf90_ds_en_a4.pdf', 'https://www.simrad.online/mf90/sales/mf90_ds_es_a4.pdf'], 'End-user documentation': ['https://www.simrad.net/mf90/documents.htm', 'https://www.simrad.net/mf90/installation.htm', 'https://www.simrad.net/mf90/drawings.htm', 'https://www.simrad.net/mf90/swrn.htm', 'https://www.simrad.net/mf90/sales.htm', 'https://www.simrad.net/mf90/certificates.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/mf90/ins_en/', 'https://www.simrad.online/mf90/ins_es/index.htm']}</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3371,11 @@
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3273,7 +3389,11 @@
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3287,7 +3407,11 @@
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>{'Software': ['https://www.simrad.net/px/configurator/software.htm'], 'End-user documentation': ['https://www.simrad.net/px/configurator/documents.htm', 'https://www.simrad.net/px/configurator/swrn.htm', 'https://www.simrad.net/px/configurator/sales.htm'], 'Online IETM Reference manuals': ['https://www.simrad.online/cm/pxc/ref_en/index.htm', 'https://www.simrad.online/cm/pxc/ref_es/index.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3303,7 +3427,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/px/flow/sales/px_flow_ds_en_a4.pdf</t>
+          <t>{'Datasheet': ['https://www.simrad.online/px/flow/sales/px_flow_ds_en_a4.pdf'], 'End-user documentation and order information': ['https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/flow/certificates.htm', 'https://www.simrad.net/px/flow/sales.htm', 'https://www.simrad.net/px/flow/order.htm'], 'Interactive instruction manuals': ['https://www.simrad.online/px/flow/inm_en/index.htm'], 'Measurements': ['/maritime/products/commercial-fisheries/fisherysensors/additional-information/catch-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/depth-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/geometry-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/height-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/spread-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/temperature-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/battery-status-measurements/'], 'Simrad PX Catch Monitoring Sensors end-user documentation': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/universal/documents.htm'], 'Related topics': ['/maritime/products/commercial-fisheries/fisherysensors/pxcharger/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/cleaning-the-catch-monitoring-sensor/', '/maritime/products/commercial-fisheries/fisherysensors/pxc/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3443,11 @@
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>{'End-user documentation and order information': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multicatch/certificates.htm', 'https://www.simrad.net/px/multicatch/sales.htm', 'https://www.simrad.net/px/multicatch/order.htm'], 'Measurements': ['/maritime/products/commercial-fisheries/fisherysensors/additional-information/catch-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/depth-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/geometry-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/height-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/spread-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/temperature-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/battery-status-measurements/'], 'Simrad PX Catch Monitoring Sensors end-user documentation': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/universal/documents.htm'], 'Related topics': ['/maritime/products/commercial-fisheries/fisherysensors/pxcharger/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/cleaning-the-catch-monitoring-sensor/', '/maritime/products/commercial-fisheries/fisherysensors/pxc/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3333,7 +3461,11 @@
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>{'End-user documentation and order information': ['https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/multisensor/certificates.htm', 'https://www.simrad.net/px/multisensor/sales.htm', 'https://www.simrad.net/px/multisensor/order.htm'], 'Measurements': ['/maritime/products/commercial-fisheries/fisherysensors/additional-information/catch-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/depth-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/geometry-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/height-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/spread-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/temperature-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/battery-status-measurements/'], 'Simrad PX Catch Monitoring Sensors end-user documentation': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/universal/documents.htm'], 'Related topics': ['/maritime/products/commercial-fisheries/fisherysensors/pxcharger/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/cleaning-the-catch-monitoring-sensor/', '/maritime/products/commercial-fisheries/fisherysensors/pxc/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3347,7 +3479,11 @@
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>{'End-user documentation and order information': ['https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/trawleye/certificates.htm', 'https://www.simrad.net/px/trawleye/sales.htm', 'https://www.simrad.net/px/trawleye/order.htm'], 'Measurements': ['/maritime/products/commercial-fisheries/fisherysensors/additional-information/catch-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/depth-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/geometry-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/height-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/spread-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/temperature-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/battery-status-measurements/'], 'Simrad PX Catch Monitoring Sensors end-user documentation': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/universal/documents.htm'], 'Related topics': ['/maritime/products/commercial-fisheries/fisherysensors/pxcharger/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/cleaning-the-catch-monitoring-sensor/', '/maritime/products/commercial-fisheries/fisherysensors/pxc/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3361,7 +3497,11 @@
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>{'End-user documentation and order information': ['https://www.simrad.net/px/universal/documents.htm', 'https://www.simrad.net/px/universal/certificates.htm', 'https://www.simrad.net/px/universal/sales.htm', 'https://www.simrad.net/px/universal/order.htm'], 'Measurements': ['/maritime/products/commercial-fisheries/fisherysensors/additional-information/catch-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/depth-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/geometry-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/height-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/spread-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/temperature-measurements/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/battery-status-measurements/'], 'Simrad PX Catch Monitoring Sensors end-user documentation': ['https://www.simrad.net/px/multicatch/documents.htm', 'https://www.simrad.net/px/multisensor/documents.htm', 'https://www.simrad.net/px/flow/documents.htm', 'https://www.simrad.net/px/trawleye/documents.htm', 'https://www.simrad.net/px/universal/documents.htm'], 'Related topics': ['/maritime/products/commercial-fisheries/fisherysensors/pxcharger/', '/maritime/products/commercial-fisheries/fisherysensors/additional-information/cleaning-the-catch-monitoring-sensor/', '/maritime/products/commercial-fisheries/fisherysensors/pxc/'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3375,7 +3515,11 @@
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3389,7 +3533,11 @@
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3403,7 +3551,11 @@
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>{'Simrad product catalogue': ['https://www.simrad.net/cat/catalogues.htm'], 'Pages': ['/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-trawling-sonar/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-purse-seine-sonar/', 'https://www.3ngage.se/sn90/?emb source=wwwSimradCom', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-technical-specifications/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-system-diagram/', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-hull-unit/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-transducer/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/simrad-sn90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/sn90/sn90docs/', 'https://www.simrad.net/sn90/drawings.htm', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', 'https://www.simrad.net/sn90/order.htm'], 'End-user documentation': ['https://www.simrad.net/sn90/documents.htm', 'https://www.simrad.net/sn90/installation.htm', 'https://www.simrad.net/sn90/drawings.htm', 'https://www.simrad.net/sn90/sales.htm', 'https://www.simrad.net/sn90/swrn.htm', 'https://www.simrad.net/sn90/certificates.htm'], 'Online IETM Operator manuals': ['https://www.simrad.online/sn90/opm_en/', 'https://www.simrad.online/sn90/opm_es/', 'https://www.simrad.online/sn90/opm_fr/'], 'Online IETM Reference manuals': ['https://www.simrad.online/sn90/ref_en/', 'https://www.simrad.online/sn90/ref_zh_hans/index.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/sn90/ins_en/']}</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3417,7 +3569,11 @@
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>{'Pages': ['/maritime/products/commercial-fisheries/fisherysonar/simrad-st90/simrad-st90-system-diagram/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-st90/simrad-st90-technical-specifications/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-st90/simrad-st90-end-user-documentation/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-st90/simrad-st90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', 'https://www.simrad.net/st90/order.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'End-user documentation': ['https://www.simrad.net/st90/documents.htm', 'https://www.simrad.net/st90/installation.htm', 'https://www.simrad.net/st90/drawings.htm', 'https://www.simrad.net/st90/swrn.htm', 'https://www.simrad.net/st90/sales.htm', 'https://www.simrad.net/st90/certificates.htm'], 'Online IETM Operator manuals': ['https://www.simrad.online/st90/opm_en/', 'https://www.simrad.online/st90/opm_es/', 'https://www.simrad.online/st90/opm_fr/'], 'Online IETM Reference manuals': ['https://www.simrad.online/st90/ref_en/'], 'Online IETM Installation manuals': ['https://www.simrad.online/st90/ins_en/', 'https://www.simrad.online/st90/ins_es/', 'https://www.simrad.online/st90/ins_fr/']}</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3431,7 +3587,11 @@
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>{'Pages': ['/maritime/products/commercial-fisheries/fisherysonar/simrad-su90-fish-finding-omni-sonar/simrad-su90-system-diagram/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-su90-fish-finding-omni-sonar/simrad-su90-technical-specifications/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-su90-fish-finding-omni-sonar/su90docs/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-su90-fish-finding-omni-sonar/simrad-su90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/simrad-su90-fish-finding-omni-sonar/simrad-su90-hull-units/', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', 'https://www.simrad.net/su90/order.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'End-user documentation': ['https://www.simrad.net/su90/documents.htm', 'https://www.simrad.net/su90/installation.htm', 'https://www.simrad.net/su90/drawings.htm', 'https://www.simrad.net/su90/swrn.htm', 'https://www.simrad.net/su90/sales.htm', 'https://www.simrad.net/su90/certificates.htm'], 'Online IETM Operator manuals': ['https://www.simrad.online/su90/opm_en/', 'https://www.simrad.online/su90/opm_es/', 'https://www.simrad.online/su90/opm_zh_hans/', 'https://www.simrad.online/su90/opm_zh_hant/'], 'Online IETM Reference manuals': ['https://www.simrad.online/su90/ref_en/', 'https://www.simrad.online/su90/ref_zh_hans/index.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/su90/ins_en/', 'https://www.simrad.online/su90/ins_es/', 'https://www.simrad.online/su90/ins_fr/']}</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3447,7 +3607,7 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/sx90/sales/sx90_ds_english.pdf, https://www.simrad.online/sx90/sales/sx90_ds_french.pdf, https://www.simrad.online/sx90/sales/sx90_ds_italian.pdf, https://www.simrad.online/sx90/sales/sx90_ds_korean.pdf, https://www.simrad.online/sx90/sales/sx90_ds_norwegian.pdf, https://www.simrad.online/sx90/sales/sx90_ds_russian.pdf, https://www.simrad.online/sx90/sales/sx90_ds_spanish.pdf, https://www.simrad.online/sx90/sales/sx90_ds_chinese.pdf</t>
+          <t>{'Pages': ['https://www.simrad.net/sx90/sales.htm', '/maritime/products/commercial-fisheries/fisherysonar/sx90/simrad-sx90-technical-specifications/', '/maritime/products/commercial-fisheries/fisherysonar/sx90/sx90sys/', '/maritime/products/commercial-fisheries/fisherysonar/sx90/simrad-sx90-hull-units/', '/maritime/products/commercial-fisheries/fisherysonar/sx90/transducer/', '/maritime/products/commercial-fisheries/fisherysonar/sx90/simrad-sx90-current-software-version/', '/maritime/products/commercial-fisheries/fisherysonar/sx90/sx90docs/', 'https://www.simrad.net/sx90/drawings.htm', '/maritime/products/commercial-fisheries/fisherysonar/ht20470/', '/maritime/products/commercial-fisheries/fisherysonar/netcdf/', 'https://www.simrad.net/sx90/order.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Datasheet': ['https://www.simrad.online/sx90/sales/sx90_ds_english.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_french.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_italian.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_korean.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_norwegian.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_russian.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_spanish.pdf', 'https://www.simrad.online/sx90/sales/sx90_ds_chinese.pdf'], 'Simrad product catalogue': ['https://www.simrad.net/cat/catalogues.htm'], 'End-user documentation': ['https://www.simrad.net/sx90/documents.htm', 'https://www.simrad.net/sx90/installation.htm', 'https://www.simrad.net/sx90/drawings.htm', 'https://www.simrad.net/sx90/swrn.htm', 'https://www.simrad.net/sx90/sales.htm', 'https://www.simrad.net/sx90/certificates.htm'], 'Online IETM Operator manuals': ['https://www.simrad.online/sx90/opm_en/', 'https://www.simrad.online/sx90/opm_es/', 'https://www.simrad.online/sx90/opm_fr/', 'https://www.simrad.online/sx90/opm_zh_hans/', 'https://www.simrad.online/sx90/opm_zh_hant/'], 'Online IETM Reference manuals': ['https://www.simrad.online/sx90/ref_en/', 'https://www.simrad.online/sx90/ref_zh_hans/index.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/sx90/ins_en/', 'https://www.simrad.online/sx90/ins_es/', 'https://www.simrad.online/sx90/ins_fr/']}</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3625,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/sy50/sales/sy50_ds_en_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_fr_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_el_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_id_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_it_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_ko_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_nb_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_ru_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_es_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_zh_hans_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_zh_hant_a4.pdf, https://www.simrad.online/sy50/sales/sy50_ds_vn_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Datasheet': ['https://www.simrad.online/sy50/sales/sy50_ds_en_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_fr_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_el_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_id_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_it_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_ko_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_nb_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_ru_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_es_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_zh_hans_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_zh_hant_a4.pdf', 'https://www.simrad.online/sy50/sales/sy50_ds_vn_a4.pdf'], 'End-user documentation': ['https://www.simrad.net/sy50/documents.htm', 'https://www.simrad.net/sy50/installation.htm', 'https://www.simrad.net/sy50/drawings.htm', 'https://www.simrad.net/sy50/mnt.htm', 'https://www.simrad.net/sy50/swrn.htm', 'https://www.simrad.net/sy50/sales.htm', 'https://www.simrad.net/sy50/certificates.htm', '/maritime/products/commercial-fisheries/fisherysonar/nise3900e/'], 'Interactive hull unit installation guide': ['https://simradsy50.3ng.se/'], 'Online IETM Reference manuals': ['https://www.simrad.online/sy50/ref_en/index.htm', 'https://www.simrad.online/sy50/ref_es/index.htm', 'https://www.simrad.online/sy50/ref_fr/index.htm', 'https://www.simrad.online/sy50/ref_zh_hans/index.htm'], 'Online IETM Installation manuals': ['https://www.simrad.online/sy50/ins_en/', 'https://www.simrad.online/sy50/ins_fr/index.htm', 'https://www.simrad.online/sy50/ins_it/index.htm', 'https://www.simrad.online/sy50/ins_pt/index.htm', 'https://www.simrad.online/sy50/ins_es/index.htm', 'https://www.simrad.online/sy50/ins_zh_hans/index.htm', 'https://www.simrad.online/sy50/ins_zh_hant/index.htm']}</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3641,11 @@
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3495,7 +3659,11 @@
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>{'Available documents': ['https://www.simrad.net/tv80/documents.htm', 'https://www.simrad.net/tv80/sales.htm', 'https://www.simrad.net/tv80/installation.htm', 'https://www.simrad.net/tv80/drawings.htm', 'https://www.simrad.net/tv80/certificates.htm', 'https://www.simrad.net/tv80/swrn.htm', 'https://www.simrad.net/tp90', 'https://www.simrad.net/tv80'], 'Online IETM Reference manuals': ['https://www.simrad.online/tv80/ref_en/', 'https://www.simrad.online/tv80/ref_fr/', 'https://www.simrad.online/tv80/ref_es/', 'https://www.simrad.online/tv80/ref_ru/', 'https://www.simrad.online/tv80/ref_zh_hans/'], 'Online SR15 IETM Installation manuals': ['https://www.simrad.online/fisherycatch/sr15/ins_en/', 'https://www.simrad.online/fisherycatch/sr15/ins_es/'], 'Online SR70 IETM Installation manuals': ['https://www.simrad.online/fisherycatch/sr70/ins_en/', 'https://www.simrad.online/fisherycatch/sr70/ins_es/'], 'Online TP90 IETM Installation Manuals': ['https://www.simrad.online/tp90/ins_en/index.htm'], 'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad'], 'Software license requests and support': ['https://w2.km.kongsberg.com/www/01/NOKBG0764.nsf/SoftwareLicensePXN?OpenForm', 'https://w2.km.kongsberg.com/www/01/NOKBG0764.nsf/SoftwareLicenseTV80N?OpenForm', '/maritime/support/simradsupport/']}</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3515,7 +3683,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160920_transducer_12-16_60.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/130404ac_18-11_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164017_38-7.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160965ab.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164023_120-25.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164022_200-28e.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/459672a_200-3g_product-sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/422109-transducer-500khz-data-sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300867aa_sidelooking_transducer_200_lr.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/404173_sidescan_transducer_500khz_data_sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164210_38-200_combi_d.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164211_50-200_combi_d.pdf</t>
+          <t>{'Data sheet': ['/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160920_transducer_12-16_60.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/130404ac_18-11_product_specification_english.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164017_38-7.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160965ab.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164023_120-25.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164022_200-28e.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/459672a_200-3g_product-sheet.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/422109-transducer-500khz-data-sheet.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300867aa_sidelooking_transducer_200_lr.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/404173_sidescan_transducer_500khz_data_sheet.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164210_38-200_combi_d.pdf', '/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164211_50-200_combi_d.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3701,7 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/429941_ea400_power.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164354_ea600_operator_manual.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/200-khz---0.5x49-side-looking-echo-sounder-transducer', '/globalassets/maritime/km-products/product-documents/ea400_600-sidescan-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/ea600-hydrographic-single-beam-echo-sounder/', '/globalassets/maritime/km-products/product-documents/rd-301-echo-sounder-remote-display/', '/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/'], 'Information letter': ['/globalassets/maritime/km-products/product-documents/429941_ea400_power.pdf'], 'Manual': ['/globalassets/maritime/km-products/product-documents/164354_ea600_operator_manual.pdf'], 'Reference guide': ['/globalassets/maritime/km-products/product-documents/ea-rds-single-beam-echo-sounder/']}</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3723,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164241ac_en250_product_specific_lr.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164821aa_rd301_instruction_manual_lr.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/164241ac_en250_product_specific_lr.pdf', '/globalassets/maritime/km-products/product-documents/164821aa_rd301_instruction_manual_lr.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3745,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf, https://www.kongsberg.com/globalassets/discovery/mapping/sis/sis-media/sis-5.9.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_us.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_us.pdf</t>
+          <t>{'Data sheets': ['https://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf'], 'SIS Reference Manual (English)': ['https://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_us.pdf', 'https://www.kongsbergdiscovery.online/sis/ref_en/index.htm', 'https://www.kongsbergdiscovery.net/sis/index.htm'], 'KMall Instruction Manual (English)': ['https://www.kongsbergdiscovery.online/sis/kmall/html/index.html', 'https://www.kongsbergdiscovery.net/sis/index.htm'], 'Brochures': ['/globalassets/discovery/mapping/sis/sis-media/sis-5.9.pdf'], 'SIS Remote Operator manual (English)': ['https://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_us.pdf', 'https://www.kongsbergdiscovery.online/sis/remote/opm_en/index.htm', 'https://www.kongsbergdiscovery.net/sis/index.htm']}</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3767,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_us.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_us.pdf</t>
+          <t>{'Data sheets': ['https://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf'], 'SIS Remote Operator manual (English)': ['https://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/remote/opm/sis_remote_opm_en_us.pdf', 'https://www.kongsbergdiscovery.online/sis/remote/opm_en/index.htm', 'https://www.kongsbergdiscovery.net/sis/index.htm'], 'SIS Reference Manual (English)': ['https://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_a4.pdf', 'https://www.kongsbergdiscovery.online/sis/ref/sis_ref_en_us.pdf', 'https://www.kongsbergdiscovery.online/sis/ref_en/index.htm', 'https://www.kongsbergdiscovery.net/sis/index.htm'], 'KMall Instruction Manual (English)': ['https://www.kongsbergdiscovery.online/sis/kmall/html/index.html', 'https://www.kongsbergdiscovery.net/sis/index.htm']}</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3789,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/e2918278f6864aa094e7628021ac0486/ms-1000-processing-software-brochure.pdf</t>
+          <t>{'Data sheet': ['/contentassets/e2918278f6864aa094e7628021ac0486/ms-1000-processing-software-brochure.pdf'], 'Related publications': ['https://www.mesotech.online/ms1000_system/documents.htm'], 'Software Download': ['~/link/0bd2bfacc7204005b8e2f1552bf3adae.aspx']}</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3805,11 @@
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>{'Application note': ['/globalassets/maritime/km-products/product-documents/mounting-of-em-122-and-sbp-120-transducers---oden-icebreaker/'], 'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Product description': ['/globalassets/maritime/km-products/product-documents/sbp-120-sub-bottom-profiler/', '/globalassets/maritime/km-products/product-documents/sbp-300-sub-bottom-profiler/', '/globalassets/maritime/km-products/product-documents/synchronization-unit---k-synk/', '/globalassets/maritime/km-products/product-documents/data-sheet---echosounder-multibeam-em-122/', '/globalassets/maritime/km-products/product-documents/data-sheet---echosounder-multibeam-em-302/']}</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3657,7 +3829,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-27-data-sheet.pdf</t>
+          <t>{'Data Sheet': ['/globalassets/maritime/km-products/product-documents/sbp-27-data-sheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3851,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-29-data-sheet.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/sbp-29-data-sheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3869,7 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/5d74ac17037e48d383900f89d4f9557b/482731a-topas-ps120-datasheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/topas-ps-18-parametric-sub-bottom-profiler.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/topas-ps-40-parametric-sub-bottom-profiler.pdf, https://www.kongsberg.com/contentassets/b6c01d6a20e3478f806677e9155d19f6/480656a---topas-ps120-best-practice---application-note.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/topas-mki-eol-bulletin---110-0017985-a.pdf</t>
+          <t>{'Brochure': ['~/link/349428ca632f4f61922083bee798e1e7.aspx'], 'Data sheet': ['/contentassets/5d74ac17037e48d383900f89d4f9557b/482731a-topas-ps120-datasheet.pdf', '/globalassets/maritime/km-products/product-documents/topas-ps-18-parametric-sub-bottom-profiler.pdf', '/globalassets/maritime/km-products/product-documents/topas-ps-40-parametric-sub-bottom-profiler.pdf'], 'Application Note': ['/contentassets/b6c01d6a20e3478f806677e9155d19f6/480656a---topas-ps120-best-practice---application-note.pdf'], 'Technical notes': ['/globalassets/maritime/snr-files/topas-mki-eol-bulletin---110-0017985-a.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3885,11 @@
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>{'Article': ['/globalassets/maritime/km-products/product-documents/seabed-mapping-with-hisas-sonar-for-decommissioning-projects/'], 'Brochure': ['/globalassets/maritime/km-products/product-documents/high-resolution-interferometric-synthetic-aperture-sonar---hisas-1030/']}</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3727,7 +3903,11 @@
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3741,7 +3921,11 @@
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3757,7 +3941,7 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/b6ba4a754d2a4c778b6d990622f04bcd/351069d_ttc_quick_reference_guide.pdf</t>
+          <t>{'Data sheet': ['/globalassets/maritime/km-products/product-documents/transponder-test-and-configuration-tool---ttc-light/', '/globalassets/maritime/km-products/product-documents/ttc-30-and-ttc-10-transponder-test-and-configuration-unit/'], 'Manual': ['/globalassets/maritime/km-products/product-documents/ttc-30-and-ttc-10-transponder-test-and-configuration-unit-instruction-manual/'], 'Reference guide': ['/contentassets/b6ba4a754d2a4c778b6d990622f04bcd/351069d_ttc_quick_reference_guide.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3963,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/67e20994629a4f4c859ed11af2f458f8/usv-sounder-productsheet.pdf</t>
+          <t>{'Data sheets': ['/contentassets/67e20994629a4f4c859ed11af2f458f8/usv-sounder-productsheet.pdf']}</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3979,11 @@
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>{'Related publications (PDF)': ['https://www.mesotech.online/altimeter/documents.htm'], 'Software Download': ['~/link/0bd2bfacc7204005b8e2f1552bf3adae.aspx']}</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3815,7 +4003,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/wbat_ds_en_a4.pdf, https://www.simrad.online/ek80/wbat/wbat_battery_sds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3837,7 +4025,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/wbt_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3859,7 +4047,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/wbt_mini_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3877,7 +4065,7 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.simrad.online/ek80/sales/wbt_tube_ds_en_a4.pdf</t>
+          <t>{'Stay in touch for product information and software updates': ['http://www.facebook.com/Simrad', 'https://www.twitter.com/simrad', 'https://www.linkedin.com/company/simrad']}</t>
         </is>
       </c>
     </row>
@@ -3893,7 +4081,11 @@
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3907,7 +4099,11 @@
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3921,7 +4117,11 @@
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3935,7 +4135,11 @@
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3949,7 +4153,11 @@
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3963,7 +4171,11 @@
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3977,7 +4189,11 @@
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3997,7 +4213,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/57.dm_2p_11.04.19.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/56.dm_2p_11.04.19.pdf, https://www.kongsberg.com/contentassets/fcb884f931154ae9a97e4f87c1bc39c8/datasheet_ebird.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/documents/seismic_brochure.pdf', '/contentassets/85abd294cac147f48502c9da6209348f/57.dm_2p_11.04.19.pdf', '/contentassets/85abd294cac147f48502c9da6209348f/56.dm_2p_11.04.19.pdf'], 'Data sheet': ['/contentassets/fcb884f931154ae9a97e4f87c1bc39c8/datasheet_ebird.pdf']}</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4235,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack220.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222b.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack320_oct18.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff300.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff320.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff380.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/documents/seismic_brochure.pdf'], 'Data sheets': ['/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack220.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222b.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack320_oct18.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff300.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff320.pdf', '/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff380.pdf']}</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4257,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack320.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack330.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack332.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff300.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff320.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff380.pdf</t>
+          <t>{'Brochure': ['/globalassets/maritime/km-products/documents/seismic_brochure.pdf'], 'Data sheets': ['/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack320.pdf', '/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack330.pdf', '/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack332.pdf', '/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff300.pdf', '/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff320.pdf', '/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff380.pdf']}</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4273,11 @@
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4071,7 +4291,11 @@
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4085,7 +4309,11 @@
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4099,7 +4327,11 @@
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4113,7 +4345,11 @@
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4127,7 +4363,11 @@
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4141,7 +4381,11 @@
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4155,7 +4399,11 @@
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4169,7 +4417,11 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4183,7 +4435,11 @@
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4197,7 +4453,11 @@
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4211,7 +4471,11 @@
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4225,7 +4489,11 @@
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4239,7 +4507,11 @@
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4253,7 +4525,11 @@
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4267,7 +4543,11 @@
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4281,7 +4561,11 @@
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4295,7 +4579,11 @@
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4309,7 +4597,11 @@
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4323,7 +4615,11 @@
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4337,7 +4633,11 @@
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4351,7 +4651,11 @@
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4365,7 +4669,11 @@
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4379,7 +4687,11 @@
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4393,7 +4705,11 @@
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4407,7 +4723,11 @@
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4421,7 +4741,11 @@
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4435,7 +4759,11 @@
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4449,7 +4777,11 @@
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4463,7 +4795,11 @@
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4477,7 +4813,11 @@
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4491,7 +4831,11 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4505,7 +4849,11 @@
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4519,7 +4867,11 @@
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4533,7 +4885,11 @@
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4547,7 +4903,11 @@
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
